--- a/stock_historical_data/1mo/TRF.NS.xlsx
+++ b/stock_historical_data/1mo/TRF.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P173"/>
+  <dimension ref="A1:Q174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6118,6 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6168,6 +6509,9 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6218,6 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6268,6 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6318,6 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6368,6 +6721,9 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6418,6 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6468,6 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6518,6 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6568,6 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6618,6 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6668,6 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6718,6 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6768,6 +7145,9 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6818,6 +7198,9 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6868,6 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6918,6 +7304,9 @@
       <c r="P129" t="n">
         <v>0</v>
       </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6968,6 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7018,6 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7068,6 +7463,9 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7118,6 +7516,9 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7168,6 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7218,6 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7268,6 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7318,6 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7368,6 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7418,6 +7834,9 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7468,6 +7887,9 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7518,6 +7940,9 @@
       <c r="P141" t="n">
         <v>0</v>
       </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7568,6 +7993,9 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7618,6 +8046,9 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7668,6 +8099,9 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7718,6 +8152,9 @@
       <c r="P145" t="n">
         <v>0</v>
       </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7768,6 +8205,9 @@
       <c r="P146" t="n">
         <v>0</v>
       </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7818,6 +8258,9 @@
       <c r="P147" t="n">
         <v>0</v>
       </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7868,6 +8311,9 @@
       <c r="P148" t="n">
         <v>0</v>
       </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7918,6 +8364,9 @@
       <c r="P149" t="n">
         <v>0</v>
       </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7968,6 +8417,9 @@
       <c r="P150" t="n">
         <v>0</v>
       </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8018,6 +8470,9 @@
       <c r="P151" t="n">
         <v>2</v>
       </c>
+      <c r="Q151" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8068,6 +8523,9 @@
       <c r="P152" t="n">
         <v>0</v>
       </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8118,6 +8576,9 @@
       <c r="P153" t="n">
         <v>0</v>
       </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8168,6 +8629,9 @@
       <c r="P154" t="n">
         <v>0</v>
       </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8218,6 +8682,9 @@
       <c r="P155" t="n">
         <v>0</v>
       </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8268,6 +8735,9 @@
       <c r="P156" t="n">
         <v>0</v>
       </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8318,6 +8788,9 @@
       <c r="P157" t="n">
         <v>0</v>
       </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8368,6 +8841,9 @@
       <c r="P158" t="n">
         <v>0</v>
       </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8418,6 +8894,9 @@
       <c r="P159" t="n">
         <v>0</v>
       </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8468,6 +8947,9 @@
       <c r="P160" t="n">
         <v>0</v>
       </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8518,6 +9000,9 @@
       <c r="P161" t="n">
         <v>0</v>
       </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8568,6 +9053,9 @@
       <c r="P162" t="n">
         <v>0</v>
       </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8618,6 +9106,9 @@
       <c r="P163" t="n">
         <v>0</v>
       </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8668,6 +9159,9 @@
       <c r="P164" t="n">
         <v>0</v>
       </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8718,6 +9212,9 @@
       <c r="P165" t="n">
         <v>0</v>
       </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8768,6 +9265,9 @@
       <c r="P166" t="n">
         <v>0</v>
       </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8818,6 +9318,9 @@
       <c r="P167" t="n">
         <v>0</v>
       </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8868,6 +9371,9 @@
       <c r="P168" t="n">
         <v>0</v>
       </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8918,6 +9424,9 @@
       <c r="P169" t="n">
         <v>0</v>
       </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8968,6 +9477,9 @@
       <c r="P170" t="n">
         <v>0</v>
       </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9018,6 +9530,9 @@
       <c r="P171" t="n">
         <v>0</v>
       </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9068,6 +9583,9 @@
       <c r="P172" t="n">
         <v>0</v>
       </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9118,6 +9636,60 @@
       <c r="P173" t="n">
         <v>0</v>
       </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B174" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="C174" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="D174" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="E174" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="F174" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I174" t="n">
+        <v>6</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>22</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/TRF.NS.xlsx
+++ b/stock_historical_data/1mo/TRF.NS.xlsx
@@ -9689,7 +9689,9 @@
       <c r="P174" t="n">
         <v>0</v>
       </c>
-      <c r="Q174" t="inlineStr"/>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/TRF.NS.xlsx
+++ b/stock_historical_data/1mo/TRF.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q174"/>
+  <dimension ref="A1:Q184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>40210</v>
+        <v>40179</v>
       </c>
       <c r="B2" t="n">
-        <v>646.5999755859375</v>
+        <v>695.0278972562011</v>
       </c>
       <c r="C2" t="n">
-        <v>864.2999877929688</v>
+        <v>803.078452711997</v>
       </c>
       <c r="D2" t="n">
-        <v>646.5999755859375</v>
+        <v>593.7913407931129</v>
       </c>
       <c r="E2" t="n">
-        <v>847.0999755859375</v>
-      </c>
-      <c r="F2" t="n">
-        <v>824.5912475585938</v>
-      </c>
+        <v>637.2549438476562</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>397511</v>
+        <v>43102</v>
       </c>
       <c r="H2" t="n">
         <v>2010</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40238</v>
+        <v>40210</v>
       </c>
       <c r="B3" t="n">
+        <v>646.5999755859375</v>
+      </c>
+      <c r="C3" t="n">
+        <v>864.2999877929688</v>
+      </c>
+      <c r="D3" t="n">
+        <v>646.5999755859375</v>
+      </c>
+      <c r="E3" t="n">
         <v>847.0999755859375</v>
       </c>
-      <c r="C3" t="n">
-        <v>976</v>
-      </c>
-      <c r="D3" t="n">
-        <v>840.0499877929688</v>
-      </c>
-      <c r="E3" t="n">
-        <v>883.0499877929688</v>
-      </c>
       <c r="F3" t="n">
-        <v>859.5859375</v>
+        <v>824.5912475585938</v>
       </c>
       <c r="G3" t="n">
-        <v>147655</v>
+        <v>397511</v>
       </c>
       <c r="H3" t="n">
         <v>2010</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40269</v>
+        <v>40238</v>
       </c>
       <c r="B4" t="n">
-        <v>885</v>
+        <v>847.0999755859375</v>
       </c>
       <c r="C4" t="n">
-        <v>1147</v>
+        <v>976</v>
       </c>
       <c r="D4" t="n">
-        <v>885</v>
+        <v>840.0499877929688</v>
       </c>
       <c r="E4" t="n">
-        <v>1100.650024414062</v>
+        <v>883.0499877929688</v>
       </c>
       <c r="F4" t="n">
-        <v>1071.403930664062</v>
+        <v>859.5859375</v>
       </c>
       <c r="G4" t="n">
-        <v>138329</v>
+        <v>147655</v>
       </c>
       <c r="H4" t="n">
         <v>2010</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40299</v>
+        <v>40269</v>
       </c>
       <c r="B5" t="n">
-        <v>1110</v>
+        <v>885</v>
       </c>
       <c r="C5" t="n">
-        <v>1178</v>
+        <v>1147</v>
       </c>
       <c r="D5" t="n">
-        <v>860.4000244140625</v>
+        <v>885</v>
       </c>
       <c r="E5" t="n">
-        <v>861.7999877929688</v>
+        <v>1100.650024414062</v>
       </c>
       <c r="F5" t="n">
-        <v>838.9005737304688</v>
+        <v>1071.403930664062</v>
       </c>
       <c r="G5" t="n">
-        <v>332284</v>
+        <v>138329</v>
       </c>
       <c r="H5" t="n">
         <v>2010</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40330</v>
+        <v>40299</v>
       </c>
       <c r="B6" t="n">
-        <v>850</v>
+        <v>1110</v>
       </c>
       <c r="C6" t="n">
-        <v>955.7999877929688</v>
+        <v>1178</v>
       </c>
       <c r="D6" t="n">
-        <v>780</v>
+        <v>860.4000244140625</v>
       </c>
       <c r="E6" t="n">
-        <v>820.2999877929688</v>
+        <v>861.7999877929688</v>
       </c>
       <c r="F6" t="n">
-        <v>798.5032958984375</v>
+        <v>838.9005737304688</v>
       </c>
       <c r="G6" t="n">
-        <v>568426</v>
+        <v>332284</v>
       </c>
       <c r="H6" t="n">
         <v>2010</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40360</v>
+        <v>40330</v>
       </c>
       <c r="B7" t="n">
-        <v>828</v>
+        <v>850</v>
       </c>
       <c r="C7" t="n">
-        <v>928.8499755859375</v>
+        <v>955.7999877929688</v>
       </c>
       <c r="D7" t="n">
-        <v>757.5</v>
+        <v>780</v>
       </c>
       <c r="E7" t="n">
-        <v>825.0999755859375</v>
+        <v>820.2999877929688</v>
       </c>
       <c r="F7" t="n">
-        <v>803.17578125</v>
+        <v>798.5032958984375</v>
       </c>
       <c r="G7" t="n">
-        <v>348551</v>
+        <v>568426</v>
       </c>
       <c r="H7" t="n">
         <v>2010</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40391</v>
+        <v>40360</v>
       </c>
       <c r="B8" t="n">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="C8" t="n">
-        <v>878</v>
+        <v>928.8499755859375</v>
       </c>
       <c r="D8" t="n">
-        <v>771.5</v>
+        <v>757.5</v>
       </c>
       <c r="E8" t="n">
-        <v>801.7000122070312</v>
+        <v>825.0999755859375</v>
       </c>
       <c r="F8" t="n">
-        <v>787.4544677734375</v>
+        <v>803.17578125</v>
       </c>
       <c r="G8" t="n">
-        <v>123391</v>
+        <v>348551</v>
       </c>
       <c r="H8" t="n">
         <v>2010</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40422</v>
+        <v>40391</v>
       </c>
       <c r="B9" t="n">
-        <v>795</v>
+        <v>817</v>
       </c>
       <c r="C9" t="n">
-        <v>910</v>
+        <v>878</v>
       </c>
       <c r="D9" t="n">
-        <v>775.0499877929688</v>
+        <v>771.5</v>
       </c>
       <c r="E9" t="n">
-        <v>901</v>
+        <v>801.7000122070312</v>
       </c>
       <c r="F9" t="n">
-        <v>884.989990234375</v>
+        <v>787.4544677734375</v>
       </c>
       <c r="G9" t="n">
-        <v>179309</v>
+        <v>123391</v>
       </c>
       <c r="H9" t="n">
         <v>2010</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40452</v>
+        <v>40422</v>
       </c>
       <c r="B10" t="n">
-        <v>894</v>
+        <v>795</v>
       </c>
       <c r="C10" t="n">
-        <v>984.7999877929688</v>
+        <v>910</v>
       </c>
       <c r="D10" t="n">
-        <v>600</v>
+        <v>775.0499877929688</v>
       </c>
       <c r="E10" t="n">
-        <v>652.3499755859375</v>
+        <v>901</v>
       </c>
       <c r="F10" t="n">
-        <v>640.7582397460938</v>
+        <v>884.989990234375</v>
       </c>
       <c r="G10" t="n">
-        <v>1087819</v>
+        <v>179309</v>
       </c>
       <c r="H10" t="n">
         <v>2010</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40483</v>
+        <v>40452</v>
       </c>
       <c r="B11" t="n">
-        <v>660</v>
+        <v>894</v>
       </c>
       <c r="C11" t="n">
-        <v>760</v>
+        <v>984.7999877929688</v>
       </c>
       <c r="D11" t="n">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="E11" t="n">
-        <v>598.7999877929688</v>
+        <v>652.3499755859375</v>
       </c>
       <c r="F11" t="n">
-        <v>588.1597900390625</v>
+        <v>640.7582397460938</v>
       </c>
       <c r="G11" t="n">
-        <v>531499</v>
+        <v>1087819</v>
       </c>
       <c r="H11" t="n">
         <v>2010</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40513</v>
+        <v>40483</v>
       </c>
       <c r="B12" t="n">
-        <v>601</v>
+        <v>660</v>
       </c>
       <c r="C12" t="n">
-        <v>609</v>
+        <v>760</v>
       </c>
       <c r="D12" t="n">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="E12" t="n">
-        <v>559.7000122070312</v>
+        <v>598.7999877929688</v>
       </c>
       <c r="F12" t="n">
-        <v>549.754638671875</v>
+        <v>588.1597900390625</v>
       </c>
       <c r="G12" t="n">
-        <v>178481</v>
+        <v>531499</v>
       </c>
       <c r="H12" t="n">
         <v>2010</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40544</v>
+        <v>40513</v>
       </c>
       <c r="B13" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="C13" t="n">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="D13" t="n">
-        <v>490.1000061035156</v>
+        <v>520</v>
       </c>
       <c r="E13" t="n">
-        <v>503.8999938964844</v>
+        <v>559.7000122070312</v>
       </c>
       <c r="F13" t="n">
-        <v>494.9461059570312</v>
+        <v>549.754638671875</v>
       </c>
       <c r="G13" t="n">
-        <v>180271</v>
+        <v>178481</v>
       </c>
       <c r="H13" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40575</v>
+        <v>40544</v>
       </c>
       <c r="B14" t="n">
-        <v>516.7000122070312</v>
+        <v>555</v>
       </c>
       <c r="C14" t="n">
-        <v>539.9000244140625</v>
+        <v>584</v>
       </c>
       <c r="D14" t="n">
-        <v>423</v>
+        <v>490.1000061035156</v>
       </c>
       <c r="E14" t="n">
-        <v>469.6000061035156</v>
+        <v>503.8999938964844</v>
       </c>
       <c r="F14" t="n">
-        <v>461.255615234375</v>
+        <v>494.9461059570312</v>
       </c>
       <c r="G14" t="n">
-        <v>138331</v>
+        <v>180271</v>
       </c>
       <c r="H14" t="n">
         <v>2011</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1210,36 +1202,36 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40603</v>
+        <v>40575</v>
       </c>
       <c r="B15" t="n">
-        <v>466.6000061035156</v>
+        <v>516.7000122070312</v>
       </c>
       <c r="C15" t="n">
-        <v>511</v>
+        <v>539.9000244140625</v>
       </c>
       <c r="D15" t="n">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E15" t="n">
-        <v>464.25</v>
+        <v>469.6000061035156</v>
       </c>
       <c r="F15" t="n">
-        <v>456.0006408691406</v>
+        <v>461.255615234375</v>
       </c>
       <c r="G15" t="n">
-        <v>241613</v>
+        <v>138331</v>
       </c>
       <c r="H15" t="n">
         <v>2011</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1263,36 +1255,36 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40634</v>
+        <v>40603</v>
       </c>
       <c r="B16" t="n">
-        <v>468</v>
+        <v>466.6000061035156</v>
       </c>
       <c r="C16" t="n">
-        <v>651.7000122070312</v>
+        <v>511</v>
       </c>
       <c r="D16" t="n">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="E16" t="n">
-        <v>589.75</v>
+        <v>464.25</v>
       </c>
       <c r="F16" t="n">
-        <v>579.2706298828125</v>
+        <v>456.0006408691406</v>
       </c>
       <c r="G16" t="n">
-        <v>1707280</v>
+        <v>241613</v>
       </c>
       <c r="H16" t="n">
         <v>2011</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40664</v>
+        <v>40634</v>
       </c>
       <c r="B17" t="n">
-        <v>599.5</v>
+        <v>468</v>
       </c>
       <c r="C17" t="n">
-        <v>609</v>
+        <v>651.7000122070312</v>
       </c>
       <c r="D17" t="n">
-        <v>381.3500061035156</v>
+        <v>455</v>
       </c>
       <c r="E17" t="n">
-        <v>393.6499938964844</v>
+        <v>589.75</v>
       </c>
       <c r="F17" t="n">
-        <v>386.6551208496094</v>
+        <v>579.2706298828125</v>
       </c>
       <c r="G17" t="n">
-        <v>1945639</v>
+        <v>1707280</v>
       </c>
       <c r="H17" t="n">
         <v>2011</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40695</v>
+        <v>40664</v>
       </c>
       <c r="B18" t="n">
-        <v>396.7999877929688</v>
+        <v>599.5</v>
       </c>
       <c r="C18" t="n">
-        <v>407</v>
+        <v>609</v>
       </c>
       <c r="D18" t="n">
-        <v>337.1499938964844</v>
+        <v>381.3500061035156</v>
       </c>
       <c r="E18" t="n">
-        <v>368.6499938964844</v>
+        <v>393.6499938964844</v>
       </c>
       <c r="F18" t="n">
-        <v>362.099365234375</v>
+        <v>386.6551208496094</v>
       </c>
       <c r="G18" t="n">
-        <v>440925</v>
+        <v>1945639</v>
       </c>
       <c r="H18" t="n">
         <v>2011</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40725</v>
+        <v>40695</v>
       </c>
       <c r="B19" t="n">
-        <v>370</v>
+        <v>396.7999877929688</v>
       </c>
       <c r="C19" t="n">
-        <v>453.3500061035156</v>
+        <v>407</v>
       </c>
       <c r="D19" t="n">
-        <v>370</v>
+        <v>337.1499938964844</v>
       </c>
       <c r="E19" t="n">
-        <v>379.9500122070312</v>
+        <v>368.6499938964844</v>
       </c>
       <c r="F19" t="n">
-        <v>373.1986083984375</v>
+        <v>362.099365234375</v>
       </c>
       <c r="G19" t="n">
-        <v>2634217</v>
+        <v>440925</v>
       </c>
       <c r="H19" t="n">
         <v>2011</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40756</v>
+        <v>40725</v>
       </c>
       <c r="B20" t="n">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C20" t="n">
-        <v>396.6000061035156</v>
+        <v>453.3500061035156</v>
       </c>
       <c r="D20" t="n">
-        <v>307.6499938964844</v>
+        <v>370</v>
       </c>
       <c r="E20" t="n">
-        <v>337.6499938964844</v>
+        <v>379.9500122070312</v>
       </c>
       <c r="F20" t="n">
-        <v>333.4108276367188</v>
+        <v>373.1986083984375</v>
       </c>
       <c r="G20" t="n">
-        <v>810767</v>
+        <v>2634217</v>
       </c>
       <c r="H20" t="n">
         <v>2011</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1528,36 +1520,36 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40787</v>
+        <v>40756</v>
       </c>
       <c r="B21" t="n">
+        <v>384</v>
+      </c>
+      <c r="C21" t="n">
+        <v>396.6000061035156</v>
+      </c>
+      <c r="D21" t="n">
+        <v>307.6499938964844</v>
+      </c>
+      <c r="E21" t="n">
         <v>337.6499938964844</v>
       </c>
-      <c r="C21" t="n">
-        <v>392</v>
-      </c>
-      <c r="D21" t="n">
-        <v>316.25</v>
-      </c>
-      <c r="E21" t="n">
-        <v>319.3999938964844</v>
-      </c>
       <c r="F21" t="n">
-        <v>315.3899536132812</v>
+        <v>333.4108276367188</v>
       </c>
       <c r="G21" t="n">
-        <v>344382</v>
+        <v>810767</v>
       </c>
       <c r="H21" t="n">
         <v>2011</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1581,36 +1573,36 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40817</v>
+        <v>40787</v>
       </c>
       <c r="B22" t="n">
-        <v>315</v>
+        <v>337.6499938964844</v>
       </c>
       <c r="C22" t="n">
-        <v>352.7000122070312</v>
+        <v>392</v>
       </c>
       <c r="D22" t="n">
-        <v>305</v>
+        <v>316.25</v>
       </c>
       <c r="E22" t="n">
-        <v>341.6000061035156</v>
+        <v>319.3999938964844</v>
       </c>
       <c r="F22" t="n">
-        <v>337.3112487792969</v>
+        <v>315.3899536132812</v>
       </c>
       <c r="G22" t="n">
-        <v>203530</v>
+        <v>344382</v>
       </c>
       <c r="H22" t="n">
         <v>2011</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40848</v>
+        <v>40817</v>
       </c>
       <c r="B23" t="n">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="C23" t="n">
-        <v>365.8999938964844</v>
+        <v>352.7000122070312</v>
       </c>
       <c r="D23" t="n">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="E23" t="n">
-        <v>253.5500030517578</v>
+        <v>341.6000061035156</v>
       </c>
       <c r="F23" t="n">
-        <v>250.36669921875</v>
+        <v>337.3112487792969</v>
       </c>
       <c r="G23" t="n">
-        <v>356529</v>
+        <v>203530</v>
       </c>
       <c r="H23" t="n">
         <v>2011</v>
       </c>
       <c r="I23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40878</v>
+        <v>40848</v>
       </c>
       <c r="B24" t="n">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="C24" t="n">
-        <v>279.7000122070312</v>
+        <v>365.8999938964844</v>
       </c>
       <c r="D24" t="n">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="E24" t="n">
-        <v>210.6499938964844</v>
+        <v>253.5500030517578</v>
       </c>
       <c r="F24" t="n">
-        <v>208.0052947998047</v>
+        <v>250.36669921875</v>
       </c>
       <c r="G24" t="n">
-        <v>1189659</v>
+        <v>356529</v>
       </c>
       <c r="H24" t="n">
         <v>2011</v>
       </c>
       <c r="I24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40909</v>
+        <v>40878</v>
       </c>
       <c r="B25" t="n">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="C25" t="n">
-        <v>344.2999877929688</v>
+        <v>279.7000122070312</v>
       </c>
       <c r="D25" t="n">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E25" t="n">
-        <v>323.6000061035156</v>
+        <v>210.6499938964844</v>
       </c>
       <c r="F25" t="n">
-        <v>319.5372314453125</v>
+        <v>208.0052947998047</v>
       </c>
       <c r="G25" t="n">
-        <v>1986873</v>
+        <v>1189659</v>
       </c>
       <c r="H25" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40940</v>
+        <v>40909</v>
       </c>
       <c r="B26" t="n">
-        <v>324</v>
+        <v>209</v>
       </c>
       <c r="C26" t="n">
-        <v>385.9500122070312</v>
+        <v>344.2999877929688</v>
       </c>
       <c r="D26" t="n">
-        <v>317.2000122070312</v>
+        <v>207</v>
       </c>
       <c r="E26" t="n">
-        <v>339</v>
+        <v>323.6000061035156</v>
       </c>
       <c r="F26" t="n">
-        <v>334.7438659667969</v>
+        <v>319.5372314453125</v>
       </c>
       <c r="G26" t="n">
-        <v>2273138</v>
+        <v>1986873</v>
       </c>
       <c r="H26" t="n">
         <v>2012</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40969</v>
+        <v>40940</v>
       </c>
       <c r="B27" t="n">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C27" t="n">
-        <v>339.2999877929688</v>
+        <v>385.9500122070312</v>
       </c>
       <c r="D27" t="n">
-        <v>273.6000061035156</v>
+        <v>317.2000122070312</v>
       </c>
       <c r="E27" t="n">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="F27" t="n">
-        <v>284.3841857910156</v>
+        <v>334.7438659667969</v>
       </c>
       <c r="G27" t="n">
-        <v>555574</v>
+        <v>2273138</v>
       </c>
       <c r="H27" t="n">
         <v>2012</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>41000</v>
+        <v>40969</v>
       </c>
       <c r="B28" t="n">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="C28" t="n">
-        <v>338.3999938964844</v>
+        <v>339.2999877929688</v>
       </c>
       <c r="D28" t="n">
-        <v>290.2000122070312</v>
+        <v>273.6000061035156</v>
       </c>
       <c r="E28" t="n">
-        <v>302.25</v>
+        <v>288</v>
       </c>
       <c r="F28" t="n">
-        <v>298.4552612304688</v>
+        <v>284.3841857910156</v>
       </c>
       <c r="G28" t="n">
-        <v>512258</v>
+        <v>555574</v>
       </c>
       <c r="H28" t="n">
         <v>2012</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>41030</v>
+        <v>41000</v>
       </c>
       <c r="B29" t="n">
-        <v>303.0499877929688</v>
+        <v>292</v>
       </c>
       <c r="C29" t="n">
-        <v>308</v>
+        <v>338.3999938964844</v>
       </c>
       <c r="D29" t="n">
-        <v>241.5500030517578</v>
+        <v>290.2000122070312</v>
       </c>
       <c r="E29" t="n">
-        <v>264</v>
+        <v>302.25</v>
       </c>
       <c r="F29" t="n">
-        <v>260.6854858398438</v>
+        <v>298.4552612304688</v>
       </c>
       <c r="G29" t="n">
-        <v>275827</v>
+        <v>512258</v>
       </c>
       <c r="H29" t="n">
         <v>2012</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41061</v>
+        <v>41030</v>
       </c>
       <c r="B30" t="n">
-        <v>261.7000122070312</v>
+        <v>303.0499877929688</v>
       </c>
       <c r="C30" t="n">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D30" t="n">
-        <v>247.0500030517578</v>
+        <v>241.5500030517578</v>
       </c>
       <c r="E30" t="n">
-        <v>288.2999877929688</v>
+        <v>264</v>
       </c>
       <c r="F30" t="n">
-        <v>284.6803894042969</v>
+        <v>260.6854858398438</v>
       </c>
       <c r="G30" t="n">
-        <v>319755</v>
+        <v>275827</v>
       </c>
       <c r="H30" t="n">
         <v>2012</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2058,36 +2050,36 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41091</v>
+        <v>41061</v>
       </c>
       <c r="B31" t="n">
-        <v>291</v>
+        <v>261.7000122070312</v>
       </c>
       <c r="C31" t="n">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="D31" t="n">
-        <v>236.1000061035156</v>
+        <v>247.0500030517578</v>
       </c>
       <c r="E31" t="n">
-        <v>240.9499969482422</v>
+        <v>288.2999877929688</v>
       </c>
       <c r="F31" t="n">
-        <v>237.9248809814453</v>
+        <v>284.6803894042969</v>
       </c>
       <c r="G31" t="n">
-        <v>509962</v>
+        <v>319755</v>
       </c>
       <c r="H31" t="n">
         <v>2012</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2111,36 +2103,36 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41122</v>
+        <v>41091</v>
       </c>
       <c r="B32" t="n">
-        <v>244.0500030517578</v>
+        <v>291</v>
       </c>
       <c r="C32" t="n">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="D32" t="n">
-        <v>204.1000061035156</v>
+        <v>236.1000061035156</v>
       </c>
       <c r="E32" t="n">
-        <v>209.6499938964844</v>
+        <v>240.9499969482422</v>
       </c>
       <c r="F32" t="n">
-        <v>209.6499938964844</v>
+        <v>237.9248809814453</v>
       </c>
       <c r="G32" t="n">
-        <v>375691</v>
+        <v>509962</v>
       </c>
       <c r="H32" t="n">
         <v>2012</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41153</v>
+        <v>41122</v>
       </c>
       <c r="B33" t="n">
-        <v>212.5</v>
+        <v>244.0500030517578</v>
       </c>
       <c r="C33" t="n">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="D33" t="n">
-        <v>201.1000061035156</v>
+        <v>204.1000061035156</v>
       </c>
       <c r="E33" t="n">
-        <v>264.1499938964844</v>
+        <v>209.6499938964844</v>
       </c>
       <c r="F33" t="n">
-        <v>264.1499938964844</v>
+        <v>209.6499938964844</v>
       </c>
       <c r="G33" t="n">
-        <v>781181</v>
+        <v>375691</v>
       </c>
       <c r="H33" t="n">
         <v>2012</v>
       </c>
       <c r="I33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41183</v>
+        <v>41153</v>
       </c>
       <c r="B34" t="n">
-        <v>266.3999938964844</v>
+        <v>212.5</v>
       </c>
       <c r="C34" t="n">
-        <v>282.3999938964844</v>
+        <v>272</v>
       </c>
       <c r="D34" t="n">
-        <v>236</v>
+        <v>201.1000061035156</v>
       </c>
       <c r="E34" t="n">
-        <v>238.25</v>
+        <v>264.1499938964844</v>
       </c>
       <c r="F34" t="n">
-        <v>238.25</v>
+        <v>264.1499938964844</v>
       </c>
       <c r="G34" t="n">
-        <v>548677</v>
+        <v>781181</v>
       </c>
       <c r="H34" t="n">
         <v>2012</v>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41214</v>
+        <v>41183</v>
       </c>
       <c r="B35" t="n">
-        <v>243</v>
+        <v>266.3999938964844</v>
       </c>
       <c r="C35" t="n">
-        <v>250</v>
+        <v>282.3999938964844</v>
       </c>
       <c r="D35" t="n">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="E35" t="n">
-        <v>229.3500061035156</v>
+        <v>238.25</v>
       </c>
       <c r="F35" t="n">
-        <v>229.3500061035156</v>
+        <v>238.25</v>
       </c>
       <c r="G35" t="n">
-        <v>354782</v>
+        <v>548677</v>
       </c>
       <c r="H35" t="n">
         <v>2012</v>
       </c>
       <c r="I35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41244</v>
+        <v>41214</v>
       </c>
       <c r="B36" t="n">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C36" t="n">
-        <v>245.8000030517578</v>
+        <v>250</v>
       </c>
       <c r="D36" t="n">
-        <v>220.3000030517578</v>
+        <v>207</v>
       </c>
       <c r="E36" t="n">
-        <v>223.75</v>
+        <v>229.3500061035156</v>
       </c>
       <c r="F36" t="n">
-        <v>223.75</v>
+        <v>229.3500061035156</v>
       </c>
       <c r="G36" t="n">
-        <v>255550</v>
+        <v>354782</v>
       </c>
       <c r="H36" t="n">
         <v>2012</v>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41275</v>
+        <v>41244</v>
       </c>
       <c r="B37" t="n">
-        <v>226.8999938964844</v>
+        <v>230</v>
       </c>
       <c r="C37" t="n">
-        <v>252</v>
+        <v>245.8000030517578</v>
       </c>
       <c r="D37" t="n">
-        <v>202</v>
+        <v>220.3000030517578</v>
       </c>
       <c r="E37" t="n">
-        <v>211</v>
+        <v>223.75</v>
       </c>
       <c r="F37" t="n">
-        <v>211</v>
+        <v>223.75</v>
       </c>
       <c r="G37" t="n">
-        <v>292942</v>
+        <v>255550</v>
       </c>
       <c r="H37" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2429,36 +2421,36 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41306</v>
+        <v>41275</v>
       </c>
       <c r="B38" t="n">
-        <v>210.6999969482422</v>
+        <v>226.8999938964844</v>
       </c>
       <c r="C38" t="n">
-        <v>215.8000030517578</v>
+        <v>252</v>
       </c>
       <c r="D38" t="n">
-        <v>164.5500030517578</v>
+        <v>202</v>
       </c>
       <c r="E38" t="n">
-        <v>167.5500030517578</v>
+        <v>211</v>
       </c>
       <c r="F38" t="n">
-        <v>167.5500030517578</v>
+        <v>211</v>
       </c>
       <c r="G38" t="n">
-        <v>275204</v>
+        <v>292942</v>
       </c>
       <c r="H38" t="n">
         <v>2013</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2482,36 +2474,36 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41334</v>
+        <v>41306</v>
       </c>
       <c r="B39" t="n">
-        <v>167.8999938964844</v>
+        <v>210.6999969482422</v>
       </c>
       <c r="C39" t="n">
-        <v>174.9499969482422</v>
+        <v>215.8000030517578</v>
       </c>
       <c r="D39" t="n">
-        <v>132</v>
+        <v>164.5500030517578</v>
       </c>
       <c r="E39" t="n">
-        <v>142.25</v>
+        <v>167.5500030517578</v>
       </c>
       <c r="F39" t="n">
-        <v>142.25</v>
+        <v>167.5500030517578</v>
       </c>
       <c r="G39" t="n">
-        <v>212769</v>
+        <v>275204</v>
       </c>
       <c r="H39" t="n">
         <v>2013</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41365</v>
+        <v>41334</v>
       </c>
       <c r="B40" t="n">
-        <v>152.6999969482422</v>
+        <v>167.8999938964844</v>
       </c>
       <c r="C40" t="n">
-        <v>212.3999938964844</v>
+        <v>174.9499969482422</v>
       </c>
       <c r="D40" t="n">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E40" t="n">
-        <v>180.0500030517578</v>
+        <v>142.25</v>
       </c>
       <c r="F40" t="n">
-        <v>180.0500030517578</v>
+        <v>142.25</v>
       </c>
       <c r="G40" t="n">
-        <v>1629788</v>
+        <v>212769</v>
       </c>
       <c r="H40" t="n">
         <v>2013</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41395</v>
+        <v>41365</v>
       </c>
       <c r="B41" t="n">
+        <v>152.6999969482422</v>
+      </c>
+      <c r="C41" t="n">
+        <v>212.3999938964844</v>
+      </c>
+      <c r="D41" t="n">
+        <v>149</v>
+      </c>
+      <c r="E41" t="n">
         <v>180.0500030517578</v>
       </c>
-      <c r="C41" t="n">
-        <v>186.8000030517578</v>
-      </c>
-      <c r="D41" t="n">
-        <v>137</v>
-      </c>
-      <c r="E41" t="n">
-        <v>138.1999969482422</v>
-      </c>
       <c r="F41" t="n">
-        <v>138.1999969482422</v>
+        <v>180.0500030517578</v>
       </c>
       <c r="G41" t="n">
-        <v>95111</v>
+        <v>1629788</v>
       </c>
       <c r="H41" t="n">
         <v>2013</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2646,31 +2638,31 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41426</v>
+        <v>41395</v>
       </c>
       <c r="B42" t="n">
-        <v>138</v>
+        <v>180.0500030517578</v>
       </c>
       <c r="C42" t="n">
-        <v>144.8000030517578</v>
+        <v>186.8000030517578</v>
       </c>
       <c r="D42" t="n">
-        <v>113.0999984741211</v>
+        <v>137</v>
       </c>
       <c r="E42" t="n">
-        <v>114.6999969482422</v>
+        <v>138.1999969482422</v>
       </c>
       <c r="F42" t="n">
-        <v>114.6999969482422</v>
+        <v>138.1999969482422</v>
       </c>
       <c r="G42" t="n">
-        <v>86291</v>
+        <v>95111</v>
       </c>
       <c r="H42" t="n">
         <v>2013</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2699,31 +2691,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41456</v>
+        <v>41426</v>
       </c>
       <c r="B43" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C43" t="n">
-        <v>118</v>
+        <v>144.8000030517578</v>
       </c>
       <c r="D43" t="n">
-        <v>87.25</v>
+        <v>113.0999984741211</v>
       </c>
       <c r="E43" t="n">
-        <v>88</v>
+        <v>114.6999969482422</v>
       </c>
       <c r="F43" t="n">
-        <v>88</v>
+        <v>114.6999969482422</v>
       </c>
       <c r="G43" t="n">
-        <v>135399</v>
+        <v>86291</v>
       </c>
       <c r="H43" t="n">
         <v>2013</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41487</v>
+        <v>41456</v>
       </c>
       <c r="B44" t="n">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C44" t="n">
-        <v>121.5500030517578</v>
+        <v>118</v>
       </c>
       <c r="D44" t="n">
-        <v>85.09999847412109</v>
+        <v>87.25</v>
       </c>
       <c r="E44" t="n">
-        <v>105.9499969482422</v>
+        <v>88</v>
       </c>
       <c r="F44" t="n">
-        <v>105.9499969482422</v>
+        <v>88</v>
       </c>
       <c r="G44" t="n">
-        <v>144019</v>
+        <v>135399</v>
       </c>
       <c r="H44" t="n">
         <v>2013</v>
       </c>
       <c r="I44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41518</v>
+        <v>41487</v>
       </c>
       <c r="B45" t="n">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>118</v>
+        <v>121.5500030517578</v>
       </c>
       <c r="D45" t="n">
-        <v>96</v>
+        <v>85.09999847412109</v>
       </c>
       <c r="E45" t="n">
-        <v>102.8000030517578</v>
+        <v>105.9499969482422</v>
       </c>
       <c r="F45" t="n">
-        <v>102.8000030517578</v>
+        <v>105.9499969482422</v>
       </c>
       <c r="G45" t="n">
-        <v>73433</v>
+        <v>144019</v>
       </c>
       <c r="H45" t="n">
         <v>2013</v>
       </c>
       <c r="I45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41548</v>
+        <v>41518</v>
       </c>
       <c r="B46" t="n">
-        <v>104.9499969482422</v>
+        <v>104</v>
       </c>
       <c r="C46" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D46" t="n">
-        <v>99.05000305175781</v>
+        <v>96</v>
       </c>
       <c r="E46" t="n">
-        <v>109.3000030517578</v>
+        <v>102.8000030517578</v>
       </c>
       <c r="F46" t="n">
-        <v>109.3000030517578</v>
+        <v>102.8000030517578</v>
       </c>
       <c r="G46" t="n">
-        <v>347463</v>
+        <v>73433</v>
       </c>
       <c r="H46" t="n">
         <v>2013</v>
       </c>
       <c r="I46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2911,31 +2903,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41579</v>
+        <v>41548</v>
       </c>
       <c r="B47" t="n">
-        <v>110.9000015258789</v>
+        <v>104.9499969482422</v>
       </c>
       <c r="C47" t="n">
-        <v>127.9499969482422</v>
+        <v>116</v>
       </c>
       <c r="D47" t="n">
-        <v>97.5</v>
+        <v>99.05000305175781</v>
       </c>
       <c r="E47" t="n">
-        <v>104.8000030517578</v>
+        <v>109.3000030517578</v>
       </c>
       <c r="F47" t="n">
-        <v>104.8000030517578</v>
+        <v>109.3000030517578</v>
       </c>
       <c r="G47" t="n">
-        <v>1627521</v>
+        <v>347463</v>
       </c>
       <c r="H47" t="n">
         <v>2013</v>
       </c>
       <c r="I47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41609</v>
+        <v>41579</v>
       </c>
       <c r="B48" t="n">
+        <v>110.9000015258789</v>
+      </c>
+      <c r="C48" t="n">
+        <v>127.9499969482422</v>
+      </c>
+      <c r="D48" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E48" t="n">
         <v>104.8000030517578</v>
       </c>
-      <c r="C48" t="n">
-        <v>144.3000030517578</v>
-      </c>
-      <c r="D48" t="n">
-        <v>103.75</v>
-      </c>
-      <c r="E48" t="n">
-        <v>142.6999969482422</v>
-      </c>
       <c r="F48" t="n">
-        <v>142.6999969482422</v>
+        <v>104.8000030517578</v>
       </c>
       <c r="G48" t="n">
-        <v>4071089</v>
+        <v>1627521</v>
       </c>
       <c r="H48" t="n">
         <v>2013</v>
       </c>
       <c r="I48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3012,36 +3004,36 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41640</v>
+        <v>41609</v>
       </c>
       <c r="B49" t="n">
-        <v>141</v>
+        <v>104.8000030517578</v>
       </c>
       <c r="C49" t="n">
-        <v>146.6000061035156</v>
+        <v>144.3000030517578</v>
       </c>
       <c r="D49" t="n">
-        <v>121.1500015258789</v>
+        <v>103.75</v>
       </c>
       <c r="E49" t="n">
-        <v>125.75</v>
+        <v>142.6999969482422</v>
       </c>
       <c r="F49" t="n">
-        <v>125.75</v>
+        <v>142.6999969482422</v>
       </c>
       <c r="G49" t="n">
-        <v>1910522</v>
+        <v>4071089</v>
       </c>
       <c r="H49" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3065,36 +3057,36 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41671</v>
+        <v>41640</v>
       </c>
       <c r="B50" t="n">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C50" t="n">
-        <v>127.6999969482422</v>
+        <v>146.6000061035156</v>
       </c>
       <c r="D50" t="n">
-        <v>112.0500030517578</v>
+        <v>121.1500015258789</v>
       </c>
       <c r="E50" t="n">
-        <v>118.3499984741211</v>
+        <v>125.75</v>
       </c>
       <c r="F50" t="n">
-        <v>118.3499984741211</v>
+        <v>125.75</v>
       </c>
       <c r="G50" t="n">
-        <v>612272</v>
+        <v>1910522</v>
       </c>
       <c r="H50" t="n">
         <v>2014</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3123,31 +3115,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41699</v>
+        <v>41671</v>
       </c>
       <c r="B51" t="n">
-        <v>119.5</v>
+        <v>125</v>
       </c>
       <c r="C51" t="n">
-        <v>168</v>
+        <v>127.6999969482422</v>
       </c>
       <c r="D51" t="n">
-        <v>116.5999984741211</v>
+        <v>112.0500030517578</v>
       </c>
       <c r="E51" t="n">
-        <v>146.5500030517578</v>
+        <v>118.3499984741211</v>
       </c>
       <c r="F51" t="n">
-        <v>146.5500030517578</v>
+        <v>118.3499984741211</v>
       </c>
       <c r="G51" t="n">
-        <v>5521239</v>
+        <v>612272</v>
       </c>
       <c r="H51" t="n">
         <v>2014</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3176,31 +3168,31 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41730</v>
+        <v>41699</v>
       </c>
       <c r="B52" t="n">
-        <v>143</v>
+        <v>119.5</v>
       </c>
       <c r="C52" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D52" t="n">
-        <v>140.1000061035156</v>
+        <v>116.5999984741211</v>
       </c>
       <c r="E52" t="n">
-        <v>150.3000030517578</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="F52" t="n">
-        <v>150.3000030517578</v>
+        <v>146.5500030517578</v>
       </c>
       <c r="G52" t="n">
-        <v>408882</v>
+        <v>5521239</v>
       </c>
       <c r="H52" t="n">
         <v>2014</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3229,31 +3221,31 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41760</v>
+        <v>41730</v>
       </c>
       <c r="B53" t="n">
+        <v>143</v>
+      </c>
+      <c r="C53" t="n">
+        <v>165</v>
+      </c>
+      <c r="D53" t="n">
+        <v>140.1000061035156</v>
+      </c>
+      <c r="E53" t="n">
         <v>150.3000030517578</v>
       </c>
-      <c r="C53" t="n">
-        <v>300</v>
-      </c>
-      <c r="D53" t="n">
-        <v>143.1499938964844</v>
-      </c>
-      <c r="E53" t="n">
-        <v>273.5</v>
-      </c>
       <c r="F53" t="n">
-        <v>273.5</v>
+        <v>150.3000030517578</v>
       </c>
       <c r="G53" t="n">
-        <v>953351</v>
+        <v>408882</v>
       </c>
       <c r="H53" t="n">
         <v>2014</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41791</v>
+        <v>41760</v>
       </c>
       <c r="B54" t="n">
-        <v>286.8999938964844</v>
+        <v>150.3000030517578</v>
       </c>
       <c r="C54" t="n">
-        <v>319.5</v>
+        <v>300</v>
       </c>
       <c r="D54" t="n">
-        <v>243.1499938964844</v>
+        <v>143.1499938964844</v>
       </c>
       <c r="E54" t="n">
-        <v>305.25</v>
+        <v>273.5</v>
       </c>
       <c r="F54" t="n">
-        <v>305.25</v>
+        <v>273.5</v>
       </c>
       <c r="G54" t="n">
-        <v>545175</v>
+        <v>953351</v>
       </c>
       <c r="H54" t="n">
         <v>2014</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="B55" t="n">
-        <v>308.9500122070312</v>
+        <v>286.8999938964844</v>
       </c>
       <c r="C55" t="n">
-        <v>311.7999877929688</v>
+        <v>319.5</v>
       </c>
       <c r="D55" t="n">
-        <v>256.7999877929688</v>
+        <v>243.1499938964844</v>
       </c>
       <c r="E55" t="n">
-        <v>285</v>
+        <v>305.25</v>
       </c>
       <c r="F55" t="n">
-        <v>285</v>
+        <v>305.25</v>
       </c>
       <c r="G55" t="n">
-        <v>708052</v>
+        <v>545175</v>
       </c>
       <c r="H55" t="n">
         <v>2014</v>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41852</v>
+        <v>41821</v>
       </c>
       <c r="B56" t="n">
-        <v>285.8999938964844</v>
+        <v>308.9500122070312</v>
       </c>
       <c r="C56" t="n">
-        <v>294.7999877929688</v>
+        <v>311.7999877929688</v>
       </c>
       <c r="D56" t="n">
-        <v>212.1499938964844</v>
+        <v>256.7999877929688</v>
       </c>
       <c r="E56" t="n">
-        <v>255.3999938964844</v>
+        <v>285</v>
       </c>
       <c r="F56" t="n">
-        <v>255.3999938964844</v>
+        <v>285</v>
       </c>
       <c r="G56" t="n">
-        <v>1486951</v>
+        <v>708052</v>
       </c>
       <c r="H56" t="n">
         <v>2014</v>
       </c>
       <c r="I56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3441,31 +3433,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41883</v>
+        <v>41852</v>
       </c>
       <c r="B57" t="n">
-        <v>256</v>
+        <v>285.8999938964844</v>
       </c>
       <c r="C57" t="n">
-        <v>337.7000122070312</v>
+        <v>294.7999877929688</v>
       </c>
       <c r="D57" t="n">
-        <v>253.1000061035156</v>
+        <v>212.1499938964844</v>
       </c>
       <c r="E57" t="n">
-        <v>300.8500061035156</v>
+        <v>255.3999938964844</v>
       </c>
       <c r="F57" t="n">
-        <v>300.8500061035156</v>
+        <v>255.3999938964844</v>
       </c>
       <c r="G57" t="n">
-        <v>1948003</v>
+        <v>1486951</v>
       </c>
       <c r="H57" t="n">
         <v>2014</v>
       </c>
       <c r="I57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3494,31 +3486,31 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41913</v>
+        <v>41883</v>
       </c>
       <c r="B58" t="n">
-        <v>298.1499938964844</v>
+        <v>256</v>
       </c>
       <c r="C58" t="n">
-        <v>325</v>
+        <v>337.7000122070312</v>
       </c>
       <c r="D58" t="n">
-        <v>280.3999938964844</v>
+        <v>253.1000061035156</v>
       </c>
       <c r="E58" t="n">
-        <v>296.7999877929688</v>
+        <v>300.8500061035156</v>
       </c>
       <c r="F58" t="n">
-        <v>296.7999877929688</v>
+        <v>300.8500061035156</v>
       </c>
       <c r="G58" t="n">
-        <v>614352</v>
+        <v>1948003</v>
       </c>
       <c r="H58" t="n">
         <v>2014</v>
       </c>
       <c r="I58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3547,31 +3539,31 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41944</v>
+        <v>41913</v>
       </c>
       <c r="B59" t="n">
-        <v>299.3500061035156</v>
+        <v>298.1499938964844</v>
       </c>
       <c r="C59" t="n">
-        <v>449.2999877929688</v>
+        <v>325</v>
       </c>
       <c r="D59" t="n">
-        <v>297.1000061035156</v>
+        <v>280.3999938964844</v>
       </c>
       <c r="E59" t="n">
-        <v>394.6000061035156</v>
+        <v>296.7999877929688</v>
       </c>
       <c r="F59" t="n">
-        <v>394.6000061035156</v>
+        <v>296.7999877929688</v>
       </c>
       <c r="G59" t="n">
-        <v>3865292</v>
+        <v>614352</v>
       </c>
       <c r="H59" t="n">
         <v>2014</v>
       </c>
       <c r="I59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3600,31 +3592,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41974</v>
+        <v>41944</v>
       </c>
       <c r="B60" t="n">
-        <v>390.75</v>
+        <v>299.3500061035156</v>
       </c>
       <c r="C60" t="n">
-        <v>415</v>
+        <v>449.2999877929688</v>
       </c>
       <c r="D60" t="n">
-        <v>346.5499877929688</v>
+        <v>297.1000061035156</v>
       </c>
       <c r="E60" t="n">
-        <v>382.5499877929688</v>
+        <v>394.6000061035156</v>
       </c>
       <c r="F60" t="n">
-        <v>382.5499877929688</v>
+        <v>394.6000061035156</v>
       </c>
       <c r="G60" t="n">
-        <v>1161561</v>
+        <v>3865292</v>
       </c>
       <c r="H60" t="n">
         <v>2014</v>
       </c>
       <c r="I60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3653,31 +3645,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42005</v>
+        <v>41974</v>
       </c>
       <c r="B61" t="n">
-        <v>382.8500061035156</v>
+        <v>390.75</v>
       </c>
       <c r="C61" t="n">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D61" t="n">
-        <v>355</v>
+        <v>346.5499877929688</v>
       </c>
       <c r="E61" t="n">
-        <v>391.9500122070312</v>
+        <v>382.5499877929688</v>
       </c>
       <c r="F61" t="n">
-        <v>391.9500122070312</v>
+        <v>382.5499877929688</v>
       </c>
       <c r="G61" t="n">
-        <v>1058423</v>
+        <v>1161561</v>
       </c>
       <c r="H61" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3706,31 +3698,31 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="B62" t="n">
-        <v>393</v>
+        <v>382.8500061035156</v>
       </c>
       <c r="C62" t="n">
-        <v>403.0499877929688</v>
+        <v>422</v>
       </c>
       <c r="D62" t="n">
-        <v>346.0499877929688</v>
+        <v>355</v>
       </c>
       <c r="E62" t="n">
-        <v>354.3999938964844</v>
+        <v>391.9500122070312</v>
       </c>
       <c r="F62" t="n">
-        <v>354.3999938964844</v>
+        <v>391.9500122070312</v>
       </c>
       <c r="G62" t="n">
-        <v>624936</v>
+        <v>1058423</v>
       </c>
       <c r="H62" t="n">
         <v>2015</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3759,31 +3751,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42064</v>
+        <v>42036</v>
       </c>
       <c r="B63" t="n">
-        <v>355.25</v>
+        <v>393</v>
       </c>
       <c r="C63" t="n">
-        <v>404.6000061035156</v>
+        <v>403.0499877929688</v>
       </c>
       <c r="D63" t="n">
-        <v>294.1499938964844</v>
+        <v>346.0499877929688</v>
       </c>
       <c r="E63" t="n">
-        <v>326.7000122070312</v>
+        <v>354.3999938964844</v>
       </c>
       <c r="F63" t="n">
-        <v>326.7000122070312</v>
+        <v>354.3999938964844</v>
       </c>
       <c r="G63" t="n">
-        <v>986666</v>
+        <v>624936</v>
       </c>
       <c r="H63" t="n">
         <v>2015</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,45 +3790,45 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="B64" t="n">
-        <v>325</v>
+        <v>355.25</v>
       </c>
       <c r="C64" t="n">
-        <v>396.5</v>
+        <v>404.6000061035156</v>
       </c>
       <c r="D64" t="n">
-        <v>325</v>
+        <v>294.1499938964844</v>
       </c>
       <c r="E64" t="n">
-        <v>383.8999938964844</v>
+        <v>326.7000122070312</v>
       </c>
       <c r="F64" t="n">
-        <v>383.8999938964844</v>
+        <v>326.7000122070312</v>
       </c>
       <c r="G64" t="n">
-        <v>758596</v>
+        <v>986666</v>
       </c>
       <c r="H64" t="n">
         <v>2015</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,45 +3843,45 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42125</v>
+        <v>42095</v>
       </c>
       <c r="B65" t="n">
+        <v>325</v>
+      </c>
+      <c r="C65" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>325</v>
+      </c>
+      <c r="E65" t="n">
         <v>383.8999938964844</v>
       </c>
-      <c r="C65" t="n">
-        <v>399.8999938964844</v>
-      </c>
-      <c r="D65" t="n">
-        <v>350</v>
-      </c>
-      <c r="E65" t="n">
-        <v>378.3999938964844</v>
-      </c>
       <c r="F65" t="n">
-        <v>378.3999938964844</v>
+        <v>383.8999938964844</v>
       </c>
       <c r="G65" t="n">
-        <v>426739</v>
+        <v>758596</v>
       </c>
       <c r="H65" t="n">
         <v>2015</v>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -3918,31 +3910,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42156</v>
+        <v>42125</v>
       </c>
       <c r="B66" t="n">
-        <v>376</v>
+        <v>383.8999938964844</v>
       </c>
       <c r="C66" t="n">
-        <v>384</v>
+        <v>399.8999938964844</v>
       </c>
       <c r="D66" t="n">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="E66" t="n">
-        <v>350.3999938964844</v>
+        <v>378.3999938964844</v>
       </c>
       <c r="F66" t="n">
-        <v>350.3999938964844</v>
+        <v>378.3999938964844</v>
       </c>
       <c r="G66" t="n">
-        <v>800875</v>
+        <v>426739</v>
       </c>
       <c r="H66" t="n">
         <v>2015</v>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -3971,31 +3963,31 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42186</v>
+        <v>42156</v>
       </c>
       <c r="B67" t="n">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="C67" t="n">
-        <v>490.7000122070312</v>
+        <v>384</v>
       </c>
       <c r="D67" t="n">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="E67" t="n">
-        <v>410.75</v>
+        <v>350.3999938964844</v>
       </c>
       <c r="F67" t="n">
-        <v>410.75</v>
+        <v>350.3999938964844</v>
       </c>
       <c r="G67" t="n">
-        <v>2465841</v>
+        <v>800875</v>
       </c>
       <c r="H67" t="n">
         <v>2015</v>
       </c>
       <c r="I67" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,45 +4002,45 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42217</v>
+        <v>42186</v>
       </c>
       <c r="B68" t="n">
-        <v>408</v>
+        <v>353</v>
       </c>
       <c r="C68" t="n">
-        <v>434.8500061035156</v>
+        <v>490.7000122070312</v>
       </c>
       <c r="D68" t="n">
-        <v>186.3000030517578</v>
+        <v>353</v>
       </c>
       <c r="E68" t="n">
-        <v>200.6999969482422</v>
+        <v>410.75</v>
       </c>
       <c r="F68" t="n">
-        <v>200.6999969482422</v>
+        <v>410.75</v>
       </c>
       <c r="G68" t="n">
-        <v>2475192</v>
+        <v>2465841</v>
       </c>
       <c r="H68" t="n">
         <v>2015</v>
       </c>
       <c r="I68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,45 +4055,45 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42248</v>
+        <v>42217</v>
       </c>
       <c r="B69" t="n">
-        <v>197</v>
+        <v>408</v>
       </c>
       <c r="C69" t="n">
-        <v>225.8000030517578</v>
+        <v>434.8500061035156</v>
       </c>
       <c r="D69" t="n">
-        <v>180</v>
+        <v>186.3000030517578</v>
       </c>
       <c r="E69" t="n">
-        <v>210.25</v>
+        <v>200.6999969482422</v>
       </c>
       <c r="F69" t="n">
-        <v>210.25</v>
+        <v>200.6999969482422</v>
       </c>
       <c r="G69" t="n">
-        <v>1030146</v>
+        <v>2475192</v>
       </c>
       <c r="H69" t="n">
         <v>2015</v>
       </c>
       <c r="I69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -4130,31 +4122,31 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42278</v>
+        <v>42248</v>
       </c>
       <c r="B70" t="n">
-        <v>210.3000030517578</v>
+        <v>197</v>
       </c>
       <c r="C70" t="n">
-        <v>351.7999877929688</v>
+        <v>225.8000030517578</v>
       </c>
       <c r="D70" t="n">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="E70" t="n">
-        <v>320.5499877929688</v>
+        <v>210.25</v>
       </c>
       <c r="F70" t="n">
-        <v>320.5499877929688</v>
+        <v>210.25</v>
       </c>
       <c r="G70" t="n">
-        <v>3054857</v>
+        <v>1030146</v>
       </c>
       <c r="H70" t="n">
         <v>2015</v>
       </c>
       <c r="I70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -4183,31 +4175,31 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="B71" t="n">
-        <v>314.3999938964844</v>
+        <v>210.3000030517578</v>
       </c>
       <c r="C71" t="n">
-        <v>348.5499877929688</v>
+        <v>351.7999877929688</v>
       </c>
       <c r="D71" t="n">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="E71" t="n">
-        <v>323</v>
+        <v>320.5499877929688</v>
       </c>
       <c r="F71" t="n">
-        <v>323</v>
+        <v>320.5499877929688</v>
       </c>
       <c r="G71" t="n">
-        <v>1997385</v>
+        <v>3054857</v>
       </c>
       <c r="H71" t="n">
         <v>2015</v>
       </c>
       <c r="I71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4222,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -4231,36 +4223,36 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="B72" t="n">
+        <v>314.3999938964844</v>
+      </c>
+      <c r="C72" t="n">
+        <v>348.5499877929688</v>
+      </c>
+      <c r="D72" t="n">
+        <v>281</v>
+      </c>
+      <c r="E72" t="n">
         <v>323</v>
       </c>
-      <c r="C72" t="n">
-        <v>468.8999938964844</v>
-      </c>
-      <c r="D72" t="n">
-        <v>315.6499938964844</v>
-      </c>
-      <c r="E72" t="n">
-        <v>432.2000122070312</v>
-      </c>
       <c r="F72" t="n">
-        <v>432.2000122070312</v>
+        <v>323</v>
       </c>
       <c r="G72" t="n">
-        <v>6670832</v>
+        <v>1997385</v>
       </c>
       <c r="H72" t="n">
         <v>2015</v>
       </c>
       <c r="I72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,45 +4267,45 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42370</v>
+        <v>42339</v>
       </c>
       <c r="B73" t="n">
-        <v>434.5499877929688</v>
+        <v>323</v>
       </c>
       <c r="C73" t="n">
-        <v>437.25</v>
+        <v>468.8999938964844</v>
       </c>
       <c r="D73" t="n">
-        <v>265</v>
+        <v>315.6499938964844</v>
       </c>
       <c r="E73" t="n">
-        <v>295.2999877929688</v>
+        <v>432.2000122070312</v>
       </c>
       <c r="F73" t="n">
-        <v>295.2999877929688</v>
+        <v>432.2000122070312</v>
       </c>
       <c r="G73" t="n">
-        <v>2168313</v>
+        <v>6670832</v>
       </c>
       <c r="H73" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,45 +4320,45 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42401</v>
+        <v>42370</v>
       </c>
       <c r="B74" t="n">
-        <v>295</v>
+        <v>434.5499877929688</v>
       </c>
       <c r="C74" t="n">
-        <v>309.7000122070312</v>
+        <v>437.25</v>
       </c>
       <c r="D74" t="n">
-        <v>217.25</v>
+        <v>265</v>
       </c>
       <c r="E74" t="n">
-        <v>227.3000030517578</v>
+        <v>295.2999877929688</v>
       </c>
       <c r="F74" t="n">
-        <v>227.3000030517578</v>
+        <v>295.2999877929688</v>
       </c>
       <c r="G74" t="n">
-        <v>934241</v>
+        <v>2168313</v>
       </c>
       <c r="H74" t="n">
         <v>2016</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,45 +4373,45 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42430</v>
+        <v>42401</v>
       </c>
       <c r="B75" t="n">
-        <v>233.6999969482422</v>
+        <v>295</v>
       </c>
       <c r="C75" t="n">
-        <v>318.7999877929688</v>
+        <v>309.7000122070312</v>
       </c>
       <c r="D75" t="n">
-        <v>229.8500061035156</v>
+        <v>217.25</v>
       </c>
       <c r="E75" t="n">
-        <v>295.3999938964844</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="F75" t="n">
-        <v>295.3999938964844</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="G75" t="n">
-        <v>2455906</v>
+        <v>934241</v>
       </c>
       <c r="H75" t="n">
         <v>2016</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,10 +4426,10 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -4448,31 +4440,31 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42461</v>
+        <v>42430</v>
       </c>
       <c r="B76" t="n">
-        <v>291.9500122070312</v>
+        <v>233.6999969482422</v>
       </c>
       <c r="C76" t="n">
-        <v>338.7000122070312</v>
+        <v>318.7999877929688</v>
       </c>
       <c r="D76" t="n">
-        <v>285.6000061035156</v>
+        <v>229.8500061035156</v>
       </c>
       <c r="E76" t="n">
-        <v>328.5499877929688</v>
+        <v>295.3999938964844</v>
       </c>
       <c r="F76" t="n">
-        <v>328.5499877929688</v>
+        <v>295.3999938964844</v>
       </c>
       <c r="G76" t="n">
-        <v>1683140</v>
+        <v>2455906</v>
       </c>
       <c r="H76" t="n">
         <v>2016</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -4496,36 +4488,36 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42491</v>
+        <v>42461</v>
       </c>
       <c r="B77" t="n">
-        <v>321</v>
+        <v>291.9500122070312</v>
       </c>
       <c r="C77" t="n">
-        <v>333</v>
+        <v>338.7000122070312</v>
       </c>
       <c r="D77" t="n">
-        <v>274.1499938964844</v>
+        <v>285.6000061035156</v>
       </c>
       <c r="E77" t="n">
-        <v>293.4500122070312</v>
+        <v>328.5499877929688</v>
       </c>
       <c r="F77" t="n">
-        <v>293.4500122070312</v>
+        <v>328.5499877929688</v>
       </c>
       <c r="G77" t="n">
-        <v>1862982</v>
+        <v>1683140</v>
       </c>
       <c r="H77" t="n">
         <v>2016</v>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4549,36 +4541,36 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42522</v>
+        <v>42491</v>
       </c>
       <c r="B78" t="n">
-        <v>296.2999877929688</v>
+        <v>321</v>
       </c>
       <c r="C78" t="n">
-        <v>358.7000122070312</v>
+        <v>333</v>
       </c>
       <c r="D78" t="n">
-        <v>294.6000061035156</v>
+        <v>274.1499938964844</v>
       </c>
       <c r="E78" t="n">
-        <v>341</v>
+        <v>293.4500122070312</v>
       </c>
       <c r="F78" t="n">
-        <v>341</v>
+        <v>293.4500122070312</v>
       </c>
       <c r="G78" t="n">
-        <v>3213905</v>
+        <v>1862982</v>
       </c>
       <c r="H78" t="n">
         <v>2016</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,45 +4585,45 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42552</v>
+        <v>42522</v>
       </c>
       <c r="B79" t="n">
-        <v>344.9500122070312</v>
+        <v>296.2999877929688</v>
       </c>
       <c r="C79" t="n">
-        <v>355.7999877929688</v>
+        <v>358.7000122070312</v>
       </c>
       <c r="D79" t="n">
-        <v>316</v>
+        <v>294.6000061035156</v>
       </c>
       <c r="E79" t="n">
-        <v>317.5</v>
+        <v>341</v>
       </c>
       <c r="F79" t="n">
-        <v>317.5</v>
+        <v>341</v>
       </c>
       <c r="G79" t="n">
-        <v>1141403</v>
+        <v>3213905</v>
       </c>
       <c r="H79" t="n">
         <v>2016</v>
       </c>
       <c r="I79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,45 +4638,45 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42583</v>
+        <v>42552</v>
       </c>
       <c r="B80" t="n">
-        <v>324</v>
+        <v>344.9500122070312</v>
       </c>
       <c r="C80" t="n">
-        <v>328.8999938964844</v>
+        <v>355.7999877929688</v>
       </c>
       <c r="D80" t="n">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="E80" t="n">
-        <v>297.9500122070312</v>
+        <v>317.5</v>
       </c>
       <c r="F80" t="n">
-        <v>297.9500122070312</v>
+        <v>317.5</v>
       </c>
       <c r="G80" t="n">
-        <v>950834</v>
+        <v>1141403</v>
       </c>
       <c r="H80" t="n">
         <v>2016</v>
       </c>
       <c r="I80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4699,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -4713,31 +4705,31 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="B81" t="n">
-        <v>298.8999938964844</v>
+        <v>324</v>
       </c>
       <c r="C81" t="n">
-        <v>312</v>
+        <v>328.8999938964844</v>
       </c>
       <c r="D81" t="n">
-        <v>261.5499877929688</v>
+        <v>286</v>
       </c>
       <c r="E81" t="n">
-        <v>268.5499877929688</v>
+        <v>297.9500122070312</v>
       </c>
       <c r="F81" t="n">
-        <v>268.5499877929688</v>
+        <v>297.9500122070312</v>
       </c>
       <c r="G81" t="n">
-        <v>725467</v>
+        <v>950834</v>
       </c>
       <c r="H81" t="n">
         <v>2016</v>
       </c>
       <c r="I81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4766,31 +4758,31 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="B82" t="n">
-        <v>269.9500122070312</v>
+        <v>298.8999938964844</v>
       </c>
       <c r="C82" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D82" t="n">
-        <v>265</v>
+        <v>261.5499877929688</v>
       </c>
       <c r="E82" t="n">
-        <v>278.4500122070312</v>
+        <v>268.5499877929688</v>
       </c>
       <c r="F82" t="n">
-        <v>278.4500122070312</v>
+        <v>268.5499877929688</v>
       </c>
       <c r="G82" t="n">
-        <v>672598</v>
+        <v>725467</v>
       </c>
       <c r="H82" t="n">
         <v>2016</v>
       </c>
       <c r="I82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -4814,36 +4806,36 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42675</v>
+        <v>42644</v>
       </c>
       <c r="B83" t="n">
-        <v>278.8500061035156</v>
+        <v>269.9500122070312</v>
       </c>
       <c r="C83" t="n">
-        <v>282.2000122070312</v>
+        <v>300</v>
       </c>
       <c r="D83" t="n">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="E83" t="n">
-        <v>208.25</v>
+        <v>278.4500122070312</v>
       </c>
       <c r="F83" t="n">
-        <v>208.25</v>
+        <v>278.4500122070312</v>
       </c>
       <c r="G83" t="n">
-        <v>843225</v>
+        <v>672598</v>
       </c>
       <c r="H83" t="n">
         <v>2016</v>
       </c>
       <c r="I83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -4858,45 +4850,45 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
         <v>2</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42705</v>
+        <v>42675</v>
       </c>
       <c r="B84" t="n">
-        <v>208.75</v>
+        <v>278.8500061035156</v>
       </c>
       <c r="C84" t="n">
-        <v>222.5</v>
+        <v>282.2000122070312</v>
       </c>
       <c r="D84" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E84" t="n">
-        <v>190.8999938964844</v>
+        <v>208.25</v>
       </c>
       <c r="F84" t="n">
-        <v>190.8999938964844</v>
+        <v>208.25</v>
       </c>
       <c r="G84" t="n">
-        <v>593741</v>
+        <v>843225</v>
       </c>
       <c r="H84" t="n">
         <v>2016</v>
       </c>
       <c r="I84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4911,10 +4903,10 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -4925,31 +4917,31 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="B85" t="n">
-        <v>193</v>
+        <v>208.75</v>
       </c>
       <c r="C85" t="n">
-        <v>219.3999938964844</v>
+        <v>222.5</v>
       </c>
       <c r="D85" t="n">
-        <v>190.1000061035156</v>
+        <v>184</v>
       </c>
       <c r="E85" t="n">
-        <v>202.1999969482422</v>
+        <v>190.8999938964844</v>
       </c>
       <c r="F85" t="n">
-        <v>202.1999969482422</v>
+        <v>190.8999938964844</v>
       </c>
       <c r="G85" t="n">
-        <v>710355</v>
+        <v>593741</v>
       </c>
       <c r="H85" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4964,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -4978,31 +4970,31 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42767</v>
+        <v>42736</v>
       </c>
       <c r="B86" t="n">
+        <v>193</v>
+      </c>
+      <c r="C86" t="n">
+        <v>219.3999938964844</v>
+      </c>
+      <c r="D86" t="n">
+        <v>190.1000061035156</v>
+      </c>
+      <c r="E86" t="n">
         <v>202.1999969482422</v>
       </c>
-      <c r="C86" t="n">
-        <v>217.3999938964844</v>
-      </c>
-      <c r="D86" t="n">
-        <v>184</v>
-      </c>
-      <c r="E86" t="n">
-        <v>213.5</v>
-      </c>
       <c r="F86" t="n">
-        <v>213.5</v>
+        <v>202.1999969482422</v>
       </c>
       <c r="G86" t="n">
-        <v>964775</v>
+        <v>710355</v>
       </c>
       <c r="H86" t="n">
         <v>2017</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5017,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -5031,31 +5023,31 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B87" t="n">
-        <v>215.8999938964844</v>
+        <v>202.1999969482422</v>
       </c>
       <c r="C87" t="n">
-        <v>257.3999938964844</v>
+        <v>217.3999938964844</v>
       </c>
       <c r="D87" t="n">
-        <v>191.1999969482422</v>
+        <v>184</v>
       </c>
       <c r="E87" t="n">
-        <v>227.3999938964844</v>
+        <v>213.5</v>
       </c>
       <c r="F87" t="n">
-        <v>227.3999938964844</v>
+        <v>213.5</v>
       </c>
       <c r="G87" t="n">
-        <v>4010486</v>
+        <v>964775</v>
       </c>
       <c r="H87" t="n">
         <v>2017</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -5070,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -5079,36 +5071,36 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B88" t="n">
-        <v>228.1999969482422</v>
+        <v>215.8999938964844</v>
       </c>
       <c r="C88" t="n">
-        <v>292</v>
+        <v>257.3999938964844</v>
       </c>
       <c r="D88" t="n">
-        <v>228.1999969482422</v>
+        <v>191.1999969482422</v>
       </c>
       <c r="E88" t="n">
-        <v>278.3999938964844</v>
+        <v>227.3999938964844</v>
       </c>
       <c r="F88" t="n">
-        <v>278.3999938964844</v>
+        <v>227.3999938964844</v>
       </c>
       <c r="G88" t="n">
-        <v>3643340</v>
+        <v>4010486</v>
       </c>
       <c r="H88" t="n">
         <v>2017</v>
       </c>
       <c r="I88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -5123,45 +5115,45 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B89" t="n">
+        <v>228.1999969482422</v>
+      </c>
+      <c r="C89" t="n">
+        <v>292</v>
+      </c>
+      <c r="D89" t="n">
+        <v>228.1999969482422</v>
+      </c>
+      <c r="E89" t="n">
         <v>278.3999938964844</v>
       </c>
-      <c r="C89" t="n">
-        <v>288</v>
-      </c>
-      <c r="D89" t="n">
-        <v>215</v>
-      </c>
-      <c r="E89" t="n">
-        <v>233.6999969482422</v>
-      </c>
       <c r="F89" t="n">
-        <v>233.6999969482422</v>
+        <v>278.3999938964844</v>
       </c>
       <c r="G89" t="n">
-        <v>1597326</v>
+        <v>3643340</v>
       </c>
       <c r="H89" t="n">
         <v>2017</v>
       </c>
       <c r="I89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -5176,10 +5168,10 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -5190,31 +5182,31 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B90" t="n">
-        <v>234.4499969482422</v>
+        <v>278.3999938964844</v>
       </c>
       <c r="C90" t="n">
-        <v>257.7000122070312</v>
+        <v>288</v>
       </c>
       <c r="D90" t="n">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E90" t="n">
-        <v>228.9499969482422</v>
+        <v>233.6999969482422</v>
       </c>
       <c r="F90" t="n">
-        <v>228.9499969482422</v>
+        <v>233.6999969482422</v>
       </c>
       <c r="G90" t="n">
-        <v>1061256</v>
+        <v>1597326</v>
       </c>
       <c r="H90" t="n">
         <v>2017</v>
       </c>
       <c r="I90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -5229,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -5243,31 +5235,31 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B91" t="n">
-        <v>230.6499938964844</v>
+        <v>234.4499969482422</v>
       </c>
       <c r="C91" t="n">
-        <v>268.3999938964844</v>
+        <v>257.7000122070312</v>
       </c>
       <c r="D91" t="n">
-        <v>225.8000030517578</v>
+        <v>227</v>
       </c>
       <c r="E91" t="n">
-        <v>226.9499969482422</v>
+        <v>228.9499969482422</v>
       </c>
       <c r="F91" t="n">
-        <v>226.9499969482422</v>
+        <v>228.9499969482422</v>
       </c>
       <c r="G91" t="n">
-        <v>2234144</v>
+        <v>1061256</v>
       </c>
       <c r="H91" t="n">
         <v>2017</v>
       </c>
       <c r="I91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5282,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -5296,31 +5288,31 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B92" t="n">
-        <v>227.4499969482422</v>
+        <v>230.6499938964844</v>
       </c>
       <c r="C92" t="n">
-        <v>229.5</v>
+        <v>268.3999938964844</v>
       </c>
       <c r="D92" t="n">
-        <v>188.1499938964844</v>
+        <v>225.8000030517578</v>
       </c>
       <c r="E92" t="n">
-        <v>210.25</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="F92" t="n">
-        <v>210.25</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="G92" t="n">
-        <v>909045</v>
+        <v>2234144</v>
       </c>
       <c r="H92" t="n">
         <v>2017</v>
       </c>
       <c r="I92" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -5335,45 +5327,45 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B93" t="n">
-        <v>211.8500061035156</v>
+        <v>227.4499969482422</v>
       </c>
       <c r="C93" t="n">
-        <v>278.7000122070312</v>
+        <v>229.5</v>
       </c>
       <c r="D93" t="n">
-        <v>210.1000061035156</v>
+        <v>188.1499938964844</v>
       </c>
       <c r="E93" t="n">
-        <v>241.1999969482422</v>
+        <v>210.25</v>
       </c>
       <c r="F93" t="n">
-        <v>241.1999969482422</v>
+        <v>210.25</v>
       </c>
       <c r="G93" t="n">
-        <v>3289000</v>
+        <v>909045</v>
       </c>
       <c r="H93" t="n">
         <v>2017</v>
       </c>
       <c r="I93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -5388,45 +5380,45 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B94" t="n">
+        <v>211.8500061035156</v>
+      </c>
+      <c r="C94" t="n">
+        <v>278.7000122070312</v>
+      </c>
+      <c r="D94" t="n">
+        <v>210.1000061035156</v>
+      </c>
+      <c r="E94" t="n">
         <v>241.1999969482422</v>
       </c>
-      <c r="C94" t="n">
-        <v>263.6000061035156</v>
-      </c>
-      <c r="D94" t="n">
-        <v>234.3000030517578</v>
-      </c>
-      <c r="E94" t="n">
-        <v>245.6000061035156</v>
-      </c>
       <c r="F94" t="n">
-        <v>245.6000061035156</v>
+        <v>241.1999969482422</v>
       </c>
       <c r="G94" t="n">
-        <v>1342205</v>
+        <v>3289000</v>
       </c>
       <c r="H94" t="n">
         <v>2017</v>
       </c>
       <c r="I94" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5441,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -5455,31 +5447,31 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B95" t="n">
-        <v>246.25</v>
+        <v>241.1999969482422</v>
       </c>
       <c r="C95" t="n">
-        <v>275.7999877929688</v>
+        <v>263.6000061035156</v>
       </c>
       <c r="D95" t="n">
-        <v>210.1000061035156</v>
+        <v>234.3000030517578</v>
       </c>
       <c r="E95" t="n">
-        <v>275.7999877929688</v>
+        <v>245.6000061035156</v>
       </c>
       <c r="F95" t="n">
-        <v>275.7999877929688</v>
+        <v>245.6000061035156</v>
       </c>
       <c r="G95" t="n">
-        <v>3030389</v>
+        <v>1342205</v>
       </c>
       <c r="H95" t="n">
         <v>2017</v>
       </c>
       <c r="I95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5494,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -5508,31 +5500,31 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B96" t="n">
-        <v>292.6499938964844</v>
+        <v>246.25</v>
       </c>
       <c r="C96" t="n">
-        <v>322</v>
+        <v>275.7999877929688</v>
       </c>
       <c r="D96" t="n">
-        <v>228.6000061035156</v>
+        <v>210.1000061035156</v>
       </c>
       <c r="E96" t="n">
-        <v>258.0499877929688</v>
+        <v>275.7999877929688</v>
       </c>
       <c r="F96" t="n">
-        <v>258.0499877929688</v>
+        <v>275.7999877929688</v>
       </c>
       <c r="G96" t="n">
-        <v>6355250</v>
+        <v>3030389</v>
       </c>
       <c r="H96" t="n">
         <v>2017</v>
       </c>
       <c r="I96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5547,45 +5539,45 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B97" t="n">
-        <v>262</v>
+        <v>292.6499938964844</v>
       </c>
       <c r="C97" t="n">
-        <v>289.8999938964844</v>
+        <v>322</v>
       </c>
       <c r="D97" t="n">
-        <v>221</v>
+        <v>228.6000061035156</v>
       </c>
       <c r="E97" t="n">
-        <v>224.1999969482422</v>
+        <v>258.0499877929688</v>
       </c>
       <c r="F97" t="n">
-        <v>224.1999969482422</v>
+        <v>258.0499877929688</v>
       </c>
       <c r="G97" t="n">
-        <v>488535</v>
+        <v>6355250</v>
       </c>
       <c r="H97" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5600,45 +5592,45 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B98" t="n">
-        <v>221.5</v>
+        <v>262</v>
       </c>
       <c r="C98" t="n">
-        <v>243.5</v>
+        <v>289.8999938964844</v>
       </c>
       <c r="D98" t="n">
-        <v>205.5</v>
+        <v>221</v>
       </c>
       <c r="E98" t="n">
-        <v>218.3500061035156</v>
+        <v>224.1999969482422</v>
       </c>
       <c r="F98" t="n">
-        <v>218.3500061035156</v>
+        <v>224.1999969482422</v>
       </c>
       <c r="G98" t="n">
-        <v>334796</v>
+        <v>488535</v>
       </c>
       <c r="H98" t="n">
         <v>2018</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -5653,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -5667,31 +5659,31 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B99" t="n">
-        <v>220.1000061035156</v>
+        <v>221.5</v>
       </c>
       <c r="C99" t="n">
-        <v>241</v>
+        <v>243.5</v>
       </c>
       <c r="D99" t="n">
-        <v>195.6499938964844</v>
+        <v>205.5</v>
       </c>
       <c r="E99" t="n">
-        <v>222.8999938964844</v>
+        <v>218.3500061035156</v>
       </c>
       <c r="F99" t="n">
-        <v>222.8999938964844</v>
+        <v>218.3500061035156</v>
       </c>
       <c r="G99" t="n">
-        <v>556159</v>
+        <v>334796</v>
       </c>
       <c r="H99" t="n">
         <v>2018</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -5706,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -5720,31 +5712,31 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B100" t="n">
-        <v>223.0500030517578</v>
+        <v>220.1000061035156</v>
       </c>
       <c r="C100" t="n">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="D100" t="n">
-        <v>223</v>
+        <v>195.6499938964844</v>
       </c>
       <c r="E100" t="n">
-        <v>231.9499969482422</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="F100" t="n">
-        <v>231.9499969482422</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="G100" t="n">
-        <v>1351264</v>
+        <v>556159</v>
       </c>
       <c r="H100" t="n">
         <v>2018</v>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -5759,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -5768,36 +5760,36 @@
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B101" t="n">
+        <v>223.0500030517578</v>
+      </c>
+      <c r="C101" t="n">
+        <v>281</v>
+      </c>
+      <c r="D101" t="n">
+        <v>223</v>
+      </c>
+      <c r="E101" t="n">
         <v>231.9499969482422</v>
       </c>
-      <c r="C101" t="n">
-        <v>235.9499969482422</v>
-      </c>
-      <c r="D101" t="n">
-        <v>198</v>
-      </c>
-      <c r="E101" t="n">
-        <v>221</v>
-      </c>
       <c r="F101" t="n">
-        <v>221</v>
+        <v>231.9499969482422</v>
       </c>
       <c r="G101" t="n">
-        <v>386752</v>
+        <v>1351264</v>
       </c>
       <c r="H101" t="n">
         <v>2018</v>
       </c>
       <c r="I101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -5812,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -5821,36 +5813,36 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B102" t="n">
-        <v>220.0500030517578</v>
+        <v>231.9499969482422</v>
       </c>
       <c r="C102" t="n">
-        <v>231</v>
+        <v>235.9499969482422</v>
       </c>
       <c r="D102" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E102" t="n">
-        <v>200.5</v>
+        <v>221</v>
       </c>
       <c r="F102" t="n">
-        <v>200.5</v>
+        <v>221</v>
       </c>
       <c r="G102" t="n">
-        <v>755948</v>
+        <v>386752</v>
       </c>
       <c r="H102" t="n">
         <v>2018</v>
       </c>
       <c r="I102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -5865,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -5879,31 +5871,31 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B103" t="n">
-        <v>201</v>
+        <v>220.0500030517578</v>
       </c>
       <c r="C103" t="n">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D103" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E103" t="n">
-        <v>204.1999969482422</v>
+        <v>200.5</v>
       </c>
       <c r="F103" t="n">
-        <v>204.1999969482422</v>
+        <v>200.5</v>
       </c>
       <c r="G103" t="n">
-        <v>880000</v>
+        <v>755948</v>
       </c>
       <c r="H103" t="n">
         <v>2018</v>
       </c>
       <c r="I103" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -5918,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -5932,31 +5924,31 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B104" t="n">
-        <v>205.6000061035156</v>
+        <v>201</v>
       </c>
       <c r="C104" t="n">
-        <v>216.1499938964844</v>
+        <v>223</v>
       </c>
       <c r="D104" t="n">
-        <v>198.1999969482422</v>
+        <v>192</v>
       </c>
       <c r="E104" t="n">
-        <v>203.1999969482422</v>
+        <v>204.1999969482422</v>
       </c>
       <c r="F104" t="n">
-        <v>203.1999969482422</v>
+        <v>204.1999969482422</v>
       </c>
       <c r="G104" t="n">
-        <v>975247</v>
+        <v>880000</v>
       </c>
       <c r="H104" t="n">
         <v>2018</v>
       </c>
       <c r="I104" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -5971,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
@@ -5985,31 +5977,31 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B105" t="n">
-        <v>203.5500030517578</v>
+        <v>205.6000061035156</v>
       </c>
       <c r="C105" t="n">
-        <v>216.8999938964844</v>
+        <v>216.1499938964844</v>
       </c>
       <c r="D105" t="n">
-        <v>133</v>
+        <v>198.1999969482422</v>
       </c>
       <c r="E105" t="n">
-        <v>138.8000030517578</v>
+        <v>203.1999969482422</v>
       </c>
       <c r="F105" t="n">
-        <v>138.8000030517578</v>
+        <v>203.1999969482422</v>
       </c>
       <c r="G105" t="n">
-        <v>989380</v>
+        <v>975247</v>
       </c>
       <c r="H105" t="n">
         <v>2018</v>
       </c>
       <c r="I105" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -6024,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
@@ -6038,31 +6030,31 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B106" t="n">
-        <v>140</v>
+        <v>203.5500030517578</v>
       </c>
       <c r="C106" t="n">
-        <v>140</v>
+        <v>216.8999938964844</v>
       </c>
       <c r="D106" t="n">
-        <v>113.1500015258789</v>
+        <v>133</v>
       </c>
       <c r="E106" t="n">
-        <v>122.25</v>
+        <v>138.8000030517578</v>
       </c>
       <c r="F106" t="n">
-        <v>122.25</v>
+        <v>138.8000030517578</v>
       </c>
       <c r="G106" t="n">
-        <v>537499</v>
+        <v>989380</v>
       </c>
       <c r="H106" t="n">
         <v>2018</v>
       </c>
       <c r="I106" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -6077,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
@@ -6091,31 +6083,31 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B107" t="n">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C107" t="n">
-        <v>133.1000061035156</v>
+        <v>140</v>
       </c>
       <c r="D107" t="n">
-        <v>113.0999984741211</v>
+        <v>113.1500015258789</v>
       </c>
       <c r="E107" t="n">
-        <v>114.9000015258789</v>
+        <v>122.25</v>
       </c>
       <c r="F107" t="n">
-        <v>114.9000015258789</v>
+        <v>122.25</v>
       </c>
       <c r="G107" t="n">
-        <v>364789</v>
+        <v>537499</v>
       </c>
       <c r="H107" t="n">
         <v>2018</v>
       </c>
       <c r="I107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -6130,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O107" t="n">
         <v>0</v>
@@ -6144,31 +6136,31 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B108" t="n">
-        <v>120.9000015258789</v>
+        <v>123</v>
       </c>
       <c r="C108" t="n">
-        <v>131.6999969482422</v>
+        <v>133.1000061035156</v>
       </c>
       <c r="D108" t="n">
-        <v>101.0999984741211</v>
+        <v>113.0999984741211</v>
       </c>
       <c r="E108" t="n">
-        <v>121.75</v>
+        <v>114.9000015258789</v>
       </c>
       <c r="F108" t="n">
-        <v>121.75</v>
+        <v>114.9000015258789</v>
       </c>
       <c r="G108" t="n">
-        <v>617612</v>
+        <v>364789</v>
       </c>
       <c r="H108" t="n">
         <v>2018</v>
       </c>
       <c r="I108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -6183,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -6197,31 +6189,31 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B109" t="n">
+        <v>120.9000015258789</v>
+      </c>
+      <c r="C109" t="n">
+        <v>131.6999969482422</v>
+      </c>
+      <c r="D109" t="n">
+        <v>101.0999984741211</v>
+      </c>
+      <c r="E109" t="n">
         <v>121.75</v>
       </c>
-      <c r="C109" t="n">
-        <v>147.3000030517578</v>
-      </c>
-      <c r="D109" t="n">
-        <v>104</v>
-      </c>
-      <c r="E109" t="n">
-        <v>108.9000015258789</v>
-      </c>
       <c r="F109" t="n">
-        <v>108.9000015258789</v>
+        <v>121.75</v>
       </c>
       <c r="G109" t="n">
-        <v>1854723</v>
+        <v>617612</v>
       </c>
       <c r="H109" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -6236,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -6250,31 +6242,31 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B110" t="n">
-        <v>108.3499984741211</v>
+        <v>121.75</v>
       </c>
       <c r="C110" t="n">
-        <v>111</v>
+        <v>147.3000030517578</v>
       </c>
       <c r="D110" t="n">
-        <v>94.65000152587891</v>
+        <v>104</v>
       </c>
       <c r="E110" t="n">
-        <v>100.75</v>
+        <v>108.9000015258789</v>
       </c>
       <c r="F110" t="n">
-        <v>100.75</v>
+        <v>108.9000015258789</v>
       </c>
       <c r="G110" t="n">
-        <v>422450</v>
+        <v>1854723</v>
       </c>
       <c r="H110" t="n">
         <v>2019</v>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -6289,10 +6281,10 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -6303,31 +6295,31 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B111" t="n">
-        <v>101.6500015258789</v>
+        <v>108.3499984741211</v>
       </c>
       <c r="C111" t="n">
-        <v>137.0500030517578</v>
+        <v>111</v>
       </c>
       <c r="D111" t="n">
-        <v>101.0500030517578</v>
+        <v>94.65000152587891</v>
       </c>
       <c r="E111" t="n">
-        <v>119.5500030517578</v>
+        <v>100.75</v>
       </c>
       <c r="F111" t="n">
-        <v>119.5500030517578</v>
+        <v>100.75</v>
       </c>
       <c r="G111" t="n">
-        <v>1700008</v>
+        <v>422450</v>
       </c>
       <c r="H111" t="n">
         <v>2019</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -6342,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -6356,31 +6348,31 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B112" t="n">
-        <v>120.4499969482422</v>
+        <v>101.6500015258789</v>
       </c>
       <c r="C112" t="n">
-        <v>148.5</v>
+        <v>137.0500030517578</v>
       </c>
       <c r="D112" t="n">
-        <v>119.5999984741211</v>
+        <v>101.0500030517578</v>
       </c>
       <c r="E112" t="n">
-        <v>134.6499938964844</v>
+        <v>119.5500030517578</v>
       </c>
       <c r="F112" t="n">
-        <v>134.6499938964844</v>
+        <v>119.5500030517578</v>
       </c>
       <c r="G112" t="n">
-        <v>2479634</v>
+        <v>1700008</v>
       </c>
       <c r="H112" t="n">
         <v>2019</v>
       </c>
       <c r="I112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -6395,10 +6387,10 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
@@ -6409,31 +6401,31 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B113" t="n">
+        <v>120.4499969482422</v>
+      </c>
+      <c r="C113" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>119.5999984741211</v>
+      </c>
+      <c r="E113" t="n">
         <v>134.6499938964844</v>
       </c>
-      <c r="C113" t="n">
-        <v>138</v>
-      </c>
-      <c r="D113" t="n">
-        <v>103.6999969482422</v>
-      </c>
-      <c r="E113" t="n">
-        <v>127.3000030517578</v>
-      </c>
       <c r="F113" t="n">
-        <v>127.3000030517578</v>
+        <v>134.6499938964844</v>
       </c>
       <c r="G113" t="n">
-        <v>1171635</v>
+        <v>2479634</v>
       </c>
       <c r="H113" t="n">
         <v>2019</v>
       </c>
       <c r="I113" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -6448,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -6462,31 +6454,31 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B114" t="n">
-        <v>128.1000061035156</v>
+        <v>134.6499938964844</v>
       </c>
       <c r="C114" t="n">
-        <v>130.3999938964844</v>
+        <v>138</v>
       </c>
       <c r="D114" t="n">
-        <v>105</v>
+        <v>103.6999969482422</v>
       </c>
       <c r="E114" t="n">
-        <v>112.8000030517578</v>
+        <v>127.3000030517578</v>
       </c>
       <c r="F114" t="n">
-        <v>112.8000030517578</v>
+        <v>127.3000030517578</v>
       </c>
       <c r="G114" t="n">
-        <v>634091</v>
+        <v>1171635</v>
       </c>
       <c r="H114" t="n">
         <v>2019</v>
       </c>
       <c r="I114" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -6501,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -6510,36 +6502,36 @@
         <v>0</v>
       </c>
       <c r="Q114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B115" t="n">
-        <v>114</v>
+        <v>128.1000061035156</v>
       </c>
       <c r="C115" t="n">
-        <v>121.3000030517578</v>
+        <v>130.3999938964844</v>
       </c>
       <c r="D115" t="n">
-        <v>97.09999847412109</v>
+        <v>105</v>
       </c>
       <c r="E115" t="n">
-        <v>101.3000030517578</v>
+        <v>112.8000030517578</v>
       </c>
       <c r="F115" t="n">
-        <v>101.3000030517578</v>
+        <v>112.8000030517578</v>
       </c>
       <c r="G115" t="n">
-        <v>560702</v>
+        <v>634091</v>
       </c>
       <c r="H115" t="n">
         <v>2019</v>
       </c>
       <c r="I115" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -6554,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -6563,36 +6555,36 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B116" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>102.8000030517578</v>
+        <v>121.3000030517578</v>
       </c>
       <c r="D116" t="n">
-        <v>71.25</v>
+        <v>97.09999847412109</v>
       </c>
       <c r="E116" t="n">
-        <v>84.34999847412109</v>
+        <v>101.3000030517578</v>
       </c>
       <c r="F116" t="n">
-        <v>84.34999847412109</v>
+        <v>101.3000030517578</v>
       </c>
       <c r="G116" t="n">
-        <v>588031</v>
+        <v>560702</v>
       </c>
       <c r="H116" t="n">
         <v>2019</v>
       </c>
       <c r="I116" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -6607,45 +6599,45 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
       </c>
       <c r="Q116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B117" t="n">
+        <v>102</v>
+      </c>
+      <c r="C117" t="n">
+        <v>102.8000030517578</v>
+      </c>
+      <c r="D117" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="E117" t="n">
         <v>84.34999847412109</v>
       </c>
-      <c r="C117" t="n">
-        <v>121.9499969482422</v>
-      </c>
-      <c r="D117" t="n">
-        <v>78</v>
-      </c>
-      <c r="E117" t="n">
-        <v>100.0999984741211</v>
-      </c>
       <c r="F117" t="n">
-        <v>100.0999984741211</v>
+        <v>84.34999847412109</v>
       </c>
       <c r="G117" t="n">
-        <v>1700803</v>
+        <v>588031</v>
       </c>
       <c r="H117" t="n">
         <v>2019</v>
       </c>
       <c r="I117" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -6660,45 +6652,45 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
       </c>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B118" t="n">
-        <v>102.8499984741211</v>
+        <v>84.34999847412109</v>
       </c>
       <c r="C118" t="n">
-        <v>120.9000015258789</v>
+        <v>121.9499969482422</v>
       </c>
       <c r="D118" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E118" t="n">
-        <v>114.6500015258789</v>
+        <v>100.0999984741211</v>
       </c>
       <c r="F118" t="n">
-        <v>114.6500015258789</v>
+        <v>100.0999984741211</v>
       </c>
       <c r="G118" t="n">
-        <v>1591946</v>
+        <v>1700803</v>
       </c>
       <c r="H118" t="n">
         <v>2019</v>
       </c>
       <c r="I118" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -6713,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -6727,31 +6719,31 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B119" t="n">
-        <v>115</v>
+        <v>102.8499984741211</v>
       </c>
       <c r="C119" t="n">
-        <v>117.8499984741211</v>
+        <v>120.9000015258789</v>
       </c>
       <c r="D119" t="n">
-        <v>101.3000030517578</v>
+        <v>87</v>
       </c>
       <c r="E119" t="n">
-        <v>103.4000015258789</v>
+        <v>114.6500015258789</v>
       </c>
       <c r="F119" t="n">
-        <v>103.4000015258789</v>
+        <v>114.6500015258789</v>
       </c>
       <c r="G119" t="n">
-        <v>681551</v>
+        <v>1591946</v>
       </c>
       <c r="H119" t="n">
         <v>2019</v>
       </c>
       <c r="I119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -6766,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O119" t="n">
         <v>0</v>
@@ -6780,31 +6772,31 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B120" t="n">
-        <v>104.9000015258789</v>
+        <v>115</v>
       </c>
       <c r="C120" t="n">
-        <v>126.1999969482422</v>
+        <v>117.8499984741211</v>
       </c>
       <c r="D120" t="n">
-        <v>98.25</v>
+        <v>101.3000030517578</v>
       </c>
       <c r="E120" t="n">
-        <v>119.1999969482422</v>
+        <v>103.4000015258789</v>
       </c>
       <c r="F120" t="n">
-        <v>119.1999969482422</v>
+        <v>103.4000015258789</v>
       </c>
       <c r="G120" t="n">
-        <v>3802285</v>
+        <v>681551</v>
       </c>
       <c r="H120" t="n">
         <v>2019</v>
       </c>
       <c r="I120" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -6819,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -6828,36 +6820,36 @@
         <v>0</v>
       </c>
       <c r="Q120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B121" t="n">
-        <v>118.9499969482422</v>
+        <v>104.9000015258789</v>
       </c>
       <c r="C121" t="n">
-        <v>142.9499969482422</v>
+        <v>126.1999969482422</v>
       </c>
       <c r="D121" t="n">
-        <v>111.4499969482422</v>
+        <v>98.25</v>
       </c>
       <c r="E121" t="n">
-        <v>120.8499984741211</v>
+        <v>119.1999969482422</v>
       </c>
       <c r="F121" t="n">
-        <v>120.8499984741211</v>
+        <v>119.1999969482422</v>
       </c>
       <c r="G121" t="n">
-        <v>5048899</v>
+        <v>3802285</v>
       </c>
       <c r="H121" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -6872,45 +6864,45 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
       </c>
       <c r="Q121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B122" t="n">
-        <v>121.4499969482422</v>
+        <v>118.9499969482422</v>
       </c>
       <c r="C122" t="n">
-        <v>124.9000015258789</v>
+        <v>142.9499969482422</v>
       </c>
       <c r="D122" t="n">
-        <v>91.40000152587891</v>
+        <v>111.4499969482422</v>
       </c>
       <c r="E122" t="n">
-        <v>92.25</v>
+        <v>120.8499984741211</v>
       </c>
       <c r="F122" t="n">
-        <v>92.25</v>
+        <v>120.8499984741211</v>
       </c>
       <c r="G122" t="n">
-        <v>933426</v>
+        <v>5048899</v>
       </c>
       <c r="H122" t="n">
         <v>2020</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -6925,10 +6917,10 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -6939,31 +6931,31 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B123" t="n">
-        <v>95</v>
+        <v>121.4499969482422</v>
       </c>
       <c r="C123" t="n">
-        <v>98.94999694824219</v>
+        <v>124.9000015258789</v>
       </c>
       <c r="D123" t="n">
-        <v>45.15000152587891</v>
+        <v>91.40000152587891</v>
       </c>
       <c r="E123" t="n">
-        <v>51.29999923706055</v>
+        <v>92.25</v>
       </c>
       <c r="F123" t="n">
-        <v>51.29999923706055</v>
+        <v>92.25</v>
       </c>
       <c r="G123" t="n">
-        <v>993093</v>
+        <v>933426</v>
       </c>
       <c r="H123" t="n">
         <v>2020</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
@@ -6978,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P123" t="n">
         <v>0</v>
@@ -6992,31 +6984,31 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B124" t="n">
+        <v>95</v>
+      </c>
+      <c r="C124" t="n">
+        <v>98.94999694824219</v>
+      </c>
+      <c r="D124" t="n">
+        <v>45.15000152587891</v>
+      </c>
+      <c r="E124" t="n">
         <v>51.29999923706055</v>
       </c>
-      <c r="C124" t="n">
-        <v>89.59999847412109</v>
-      </c>
-      <c r="D124" t="n">
-        <v>49.95000076293945</v>
-      </c>
-      <c r="E124" t="n">
-        <v>70.30000305175781</v>
-      </c>
       <c r="F124" t="n">
-        <v>70.30000305175781</v>
+        <v>51.29999923706055</v>
       </c>
       <c r="G124" t="n">
-        <v>1161590</v>
+        <v>993093</v>
       </c>
       <c r="H124" t="n">
         <v>2020</v>
       </c>
       <c r="I124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -7031,10 +7023,10 @@
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
@@ -7045,31 +7037,31 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B125" t="n">
+        <v>51.29999923706055</v>
+      </c>
+      <c r="C125" t="n">
+        <v>89.59999847412109</v>
+      </c>
+      <c r="D125" t="n">
+        <v>49.95000076293945</v>
+      </c>
+      <c r="E125" t="n">
         <v>70.30000305175781</v>
       </c>
-      <c r="C125" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="D125" t="n">
-        <v>61.04999923706055</v>
-      </c>
-      <c r="E125" t="n">
-        <v>67.34999847412109</v>
-      </c>
       <c r="F125" t="n">
-        <v>67.34999847412109</v>
+        <v>70.30000305175781</v>
       </c>
       <c r="G125" t="n">
-        <v>99429</v>
+        <v>1161590</v>
       </c>
       <c r="H125" t="n">
         <v>2020</v>
       </c>
       <c r="I125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
@@ -7084,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
@@ -7093,36 +7085,36 @@
         <v>0</v>
       </c>
       <c r="Q125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B126" t="n">
+        <v>70.30000305175781</v>
+      </c>
+      <c r="C126" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>61.04999923706055</v>
+      </c>
+      <c r="E126" t="n">
         <v>67.34999847412109</v>
       </c>
-      <c r="C126" t="n">
-        <v>86</v>
-      </c>
-      <c r="D126" t="n">
+      <c r="F126" t="n">
         <v>67.34999847412109</v>
       </c>
-      <c r="E126" t="n">
-        <v>74.75</v>
-      </c>
-      <c r="F126" t="n">
-        <v>74.75</v>
-      </c>
       <c r="G126" t="n">
-        <v>885952</v>
+        <v>99429</v>
       </c>
       <c r="H126" t="n">
         <v>2020</v>
       </c>
       <c r="I126" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -7137,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O126" t="n">
         <v>0</v>
@@ -7146,36 +7138,36 @@
         <v>0</v>
       </c>
       <c r="Q126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B127" t="n">
-        <v>74.09999847412109</v>
+        <v>67.34999847412109</v>
       </c>
       <c r="C127" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D127" t="n">
-        <v>72</v>
+        <v>67.34999847412109</v>
       </c>
       <c r="E127" t="n">
-        <v>77.15000152587891</v>
+        <v>74.75</v>
       </c>
       <c r="F127" t="n">
-        <v>77.15000152587891</v>
+        <v>74.75</v>
       </c>
       <c r="G127" t="n">
-        <v>682733</v>
+        <v>885952</v>
       </c>
       <c r="H127" t="n">
         <v>2020</v>
       </c>
       <c r="I127" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -7190,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -7199,36 +7191,36 @@
         <v>0</v>
       </c>
       <c r="Q127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B128" t="n">
-        <v>77.19999694824219</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="C128" t="n">
-        <v>124.6999969482422</v>
+        <v>88</v>
       </c>
       <c r="D128" t="n">
-        <v>76.34999847412109</v>
+        <v>72</v>
       </c>
       <c r="E128" t="n">
-        <v>85.59999847412109</v>
+        <v>77.15000152587891</v>
       </c>
       <c r="F128" t="n">
-        <v>85.59999847412109</v>
+        <v>77.15000152587891</v>
       </c>
       <c r="G128" t="n">
-        <v>3034351</v>
+        <v>682733</v>
       </c>
       <c r="H128" t="n">
         <v>2020</v>
       </c>
       <c r="I128" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -7243,45 +7235,45 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P128" t="n">
         <v>0</v>
       </c>
       <c r="Q128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B129" t="n">
-        <v>87.34999847412109</v>
+        <v>77.19999694824219</v>
       </c>
       <c r="C129" t="n">
-        <v>89.80000305175781</v>
+        <v>124.6999969482422</v>
       </c>
       <c r="D129" t="n">
-        <v>71.84999847412109</v>
+        <v>76.34999847412109</v>
       </c>
       <c r="E129" t="n">
-        <v>80.09999847412109</v>
+        <v>85.59999847412109</v>
       </c>
       <c r="F129" t="n">
-        <v>80.09999847412109</v>
+        <v>85.59999847412109</v>
       </c>
       <c r="G129" t="n">
-        <v>168069</v>
+        <v>3034351</v>
       </c>
       <c r="H129" t="n">
         <v>2020</v>
       </c>
       <c r="I129" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -7296,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
@@ -7310,31 +7302,31 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B130" t="n">
-        <v>81</v>
+        <v>87.34999847412109</v>
       </c>
       <c r="C130" t="n">
-        <v>82</v>
+        <v>89.80000305175781</v>
       </c>
       <c r="D130" t="n">
-        <v>72</v>
+        <v>71.84999847412109</v>
       </c>
       <c r="E130" t="n">
-        <v>73</v>
+        <v>80.09999847412109</v>
       </c>
       <c r="F130" t="n">
-        <v>73</v>
+        <v>80.09999847412109</v>
       </c>
       <c r="G130" t="n">
-        <v>161801</v>
+        <v>168069</v>
       </c>
       <c r="H130" t="n">
         <v>2020</v>
       </c>
       <c r="I130" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -7349,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O130" t="n">
         <v>0</v>
@@ -7363,31 +7355,31 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B131" t="n">
+        <v>81</v>
+      </c>
+      <c r="C131" t="n">
+        <v>82</v>
+      </c>
+      <c r="D131" t="n">
+        <v>72</v>
+      </c>
+      <c r="E131" t="n">
         <v>73</v>
       </c>
-      <c r="C131" t="n">
-        <v>85.80000305175781</v>
-      </c>
-      <c r="D131" t="n">
-        <v>70.75</v>
-      </c>
-      <c r="E131" t="n">
-        <v>84.15000152587891</v>
-      </c>
       <c r="F131" t="n">
-        <v>84.15000152587891</v>
+        <v>73</v>
       </c>
       <c r="G131" t="n">
-        <v>292029</v>
+        <v>161801</v>
       </c>
       <c r="H131" t="n">
         <v>2020</v>
       </c>
       <c r="I131" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
@@ -7402,10 +7394,10 @@
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P131" t="n">
         <v>0</v>
@@ -7416,31 +7408,31 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B132" t="n">
-        <v>84.19999694824219</v>
+        <v>73</v>
       </c>
       <c r="C132" t="n">
-        <v>116.9000015258789</v>
+        <v>85.80000305175781</v>
       </c>
       <c r="D132" t="n">
-        <v>82.30000305175781</v>
+        <v>70.75</v>
       </c>
       <c r="E132" t="n">
-        <v>97.40000152587891</v>
+        <v>84.15000152587891</v>
       </c>
       <c r="F132" t="n">
-        <v>97.40000152587891</v>
+        <v>84.15000152587891</v>
       </c>
       <c r="G132" t="n">
-        <v>1141069</v>
+        <v>292029</v>
       </c>
       <c r="H132" t="n">
         <v>2020</v>
       </c>
       <c r="I132" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
@@ -7455,45 +7447,45 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
       </c>
       <c r="Q132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B133" t="n">
+        <v>84.19999694824219</v>
+      </c>
+      <c r="C133" t="n">
+        <v>116.9000015258789</v>
+      </c>
+      <c r="D133" t="n">
+        <v>82.30000305175781</v>
+      </c>
+      <c r="E133" t="n">
         <v>97.40000152587891</v>
       </c>
-      <c r="C133" t="n">
-        <v>105.1999969482422</v>
-      </c>
-      <c r="D133" t="n">
-        <v>91</v>
-      </c>
-      <c r="E133" t="n">
-        <v>93.30000305175781</v>
-      </c>
       <c r="F133" t="n">
-        <v>93.30000305175781</v>
+        <v>97.40000152587891</v>
       </c>
       <c r="G133" t="n">
-        <v>256073</v>
+        <v>1141069</v>
       </c>
       <c r="H133" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J133" t="n">
         <v>1</v>
@@ -7508,45 +7500,45 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P133" t="n">
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B134" t="n">
-        <v>93</v>
+        <v>97.40000152587891</v>
       </c>
       <c r="C134" t="n">
-        <v>108.1999969482422</v>
+        <v>105.1999969482422</v>
       </c>
       <c r="D134" t="n">
-        <v>92.80000305175781</v>
+        <v>91</v>
       </c>
       <c r="E134" t="n">
-        <v>96.75</v>
+        <v>93.30000305175781</v>
       </c>
       <c r="F134" t="n">
-        <v>96.75</v>
+        <v>93.30000305175781</v>
       </c>
       <c r="G134" t="n">
-        <v>460269</v>
+        <v>256073</v>
       </c>
       <c r="H134" t="n">
         <v>2021</v>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -7561,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
@@ -7575,31 +7567,31 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B135" t="n">
-        <v>96.80000305175781</v>
+        <v>93</v>
       </c>
       <c r="C135" t="n">
-        <v>104.1500015258789</v>
+        <v>108.1999969482422</v>
       </c>
       <c r="D135" t="n">
-        <v>80.30000305175781</v>
+        <v>92.80000305175781</v>
       </c>
       <c r="E135" t="n">
-        <v>85.05000305175781</v>
+        <v>96.75</v>
       </c>
       <c r="F135" t="n">
-        <v>85.05000305175781</v>
+        <v>96.75</v>
       </c>
       <c r="G135" t="n">
-        <v>486846</v>
+        <v>460269</v>
       </c>
       <c r="H135" t="n">
         <v>2021</v>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -7614,45 +7606,45 @@
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P135" t="n">
         <v>0</v>
       </c>
       <c r="Q135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B136" t="n">
-        <v>85.90000152587891</v>
+        <v>96.80000305175781</v>
       </c>
       <c r="C136" t="n">
-        <v>102.6999969482422</v>
+        <v>104.1500015258789</v>
       </c>
       <c r="D136" t="n">
-        <v>83.19999694824219</v>
+        <v>80.30000305175781</v>
       </c>
       <c r="E136" t="n">
-        <v>93.5</v>
+        <v>85.05000305175781</v>
       </c>
       <c r="F136" t="n">
-        <v>93.5</v>
+        <v>85.05000305175781</v>
       </c>
       <c r="G136" t="n">
-        <v>429874</v>
+        <v>486846</v>
       </c>
       <c r="H136" t="n">
         <v>2021</v>
       </c>
       <c r="I136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
@@ -7667,45 +7659,45 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P136" t="n">
         <v>0</v>
       </c>
       <c r="Q136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B137" t="n">
+        <v>85.90000152587891</v>
+      </c>
+      <c r="C137" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="D137" t="n">
+        <v>83.19999694824219</v>
+      </c>
+      <c r="E137" t="n">
         <v>93.5</v>
       </c>
-      <c r="C137" t="n">
-        <v>120</v>
-      </c>
-      <c r="D137" t="n">
-        <v>91.25</v>
-      </c>
-      <c r="E137" t="n">
-        <v>115.0500030517578</v>
-      </c>
       <c r="F137" t="n">
-        <v>115.0500030517578</v>
+        <v>93.5</v>
       </c>
       <c r="G137" t="n">
-        <v>1858104</v>
+        <v>429874</v>
       </c>
       <c r="H137" t="n">
         <v>2021</v>
       </c>
       <c r="I137" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
@@ -7720,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O137" t="n">
         <v>0</v>
@@ -7729,36 +7721,36 @@
         <v>0</v>
       </c>
       <c r="Q137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B138" t="n">
-        <v>116.8000030517578</v>
+        <v>93.5</v>
       </c>
       <c r="C138" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="D138" t="n">
-        <v>104.4499969482422</v>
+        <v>91.25</v>
       </c>
       <c r="E138" t="n">
-        <v>157.1999969482422</v>
+        <v>115.0500030517578</v>
       </c>
       <c r="F138" t="n">
-        <v>157.1999969482422</v>
+        <v>115.0500030517578</v>
       </c>
       <c r="G138" t="n">
-        <v>5760868</v>
+        <v>1858104</v>
       </c>
       <c r="H138" t="n">
         <v>2021</v>
       </c>
       <c r="I138" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J138" t="n">
         <v>1</v>
@@ -7773,10 +7765,10 @@
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P138" t="n">
         <v>0</v>
@@ -7787,31 +7779,31 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B139" t="n">
-        <v>155</v>
+        <v>116.8000030517578</v>
       </c>
       <c r="C139" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D139" t="n">
-        <v>112.25</v>
+        <v>104.4499969482422</v>
       </c>
       <c r="E139" t="n">
-        <v>121.3000030517578</v>
+        <v>157.1999969482422</v>
       </c>
       <c r="F139" t="n">
-        <v>121.3000030517578</v>
+        <v>157.1999969482422</v>
       </c>
       <c r="G139" t="n">
-        <v>425918</v>
+        <v>5760868</v>
       </c>
       <c r="H139" t="n">
         <v>2021</v>
       </c>
       <c r="I139" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J139" t="n">
         <v>1</v>
@@ -7826,45 +7818,45 @@
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139" t="n">
         <v>0</v>
       </c>
       <c r="Q139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B140" t="n">
-        <v>120.4000015258789</v>
+        <v>155</v>
       </c>
       <c r="C140" t="n">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D140" t="n">
-        <v>98.40000152587891</v>
+        <v>112.25</v>
       </c>
       <c r="E140" t="n">
-        <v>111.5</v>
+        <v>121.3000030517578</v>
       </c>
       <c r="F140" t="n">
-        <v>111.5</v>
+        <v>121.3000030517578</v>
       </c>
       <c r="G140" t="n">
-        <v>351015</v>
+        <v>425918</v>
       </c>
       <c r="H140" t="n">
         <v>2021</v>
       </c>
       <c r="I140" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -7879,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O140" t="n">
         <v>0</v>
@@ -7888,36 +7880,36 @@
         <v>0</v>
       </c>
       <c r="Q140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B141" t="n">
-        <v>109.5</v>
+        <v>120.4000015258789</v>
       </c>
       <c r="C141" t="n">
-        <v>131.4499969482422</v>
+        <v>127</v>
       </c>
       <c r="D141" t="n">
-        <v>109.3000030517578</v>
+        <v>98.40000152587891</v>
       </c>
       <c r="E141" t="n">
-        <v>130.5500030517578</v>
+        <v>111.5</v>
       </c>
       <c r="F141" t="n">
-        <v>130.5500030517578</v>
+        <v>111.5</v>
       </c>
       <c r="G141" t="n">
-        <v>547718</v>
+        <v>351015</v>
       </c>
       <c r="H141" t="n">
         <v>2021</v>
       </c>
       <c r="I141" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J141" t="n">
         <v>1</v>
@@ -7932,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O141" t="n">
         <v>0</v>
@@ -7946,31 +7938,31 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B142" t="n">
-        <v>135</v>
+        <v>109.5</v>
       </c>
       <c r="C142" t="n">
-        <v>172.3999938964844</v>
+        <v>131.4499969482422</v>
       </c>
       <c r="D142" t="n">
-        <v>124.4499969482422</v>
+        <v>109.3000030517578</v>
       </c>
       <c r="E142" t="n">
-        <v>127.3499984741211</v>
+        <v>130.5500030517578</v>
       </c>
       <c r="F142" t="n">
-        <v>127.3499984741211</v>
+        <v>130.5500030517578</v>
       </c>
       <c r="G142" t="n">
-        <v>1018647</v>
+        <v>547718</v>
       </c>
       <c r="H142" t="n">
         <v>2021</v>
       </c>
       <c r="I142" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -7985,45 +7977,45 @@
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P142" t="n">
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B143" t="n">
-        <v>123.3499984741211</v>
+        <v>135</v>
       </c>
       <c r="C143" t="n">
-        <v>141.5500030517578</v>
+        <v>172.3999938964844</v>
       </c>
       <c r="D143" t="n">
-        <v>116.3000030517578</v>
+        <v>124.4499969482422</v>
       </c>
       <c r="E143" t="n">
-        <v>123.8000030517578</v>
+        <v>127.3499984741211</v>
       </c>
       <c r="F143" t="n">
-        <v>123.8000030517578</v>
+        <v>127.3499984741211</v>
       </c>
       <c r="G143" t="n">
-        <v>193366</v>
+        <v>1018647</v>
       </c>
       <c r="H143" t="n">
         <v>2021</v>
       </c>
       <c r="I143" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -8038,45 +8030,45 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P143" t="n">
         <v>0</v>
       </c>
       <c r="Q143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B144" t="n">
         <v>123.3499984741211</v>
       </c>
       <c r="C144" t="n">
-        <v>168.5500030517578</v>
+        <v>141.5500030517578</v>
       </c>
       <c r="D144" t="n">
-        <v>122.5</v>
+        <v>116.3000030517578</v>
       </c>
       <c r="E144" t="n">
-        <v>136.6499938964844</v>
+        <v>123.8000030517578</v>
       </c>
       <c r="F144" t="n">
-        <v>136.6499938964844</v>
+        <v>123.8000030517578</v>
       </c>
       <c r="G144" t="n">
-        <v>385183</v>
+        <v>193366</v>
       </c>
       <c r="H144" t="n">
         <v>2021</v>
       </c>
       <c r="I144" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J144" t="n">
         <v>1</v>
@@ -8091,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O144" t="n">
         <v>0</v>
@@ -8105,31 +8097,31 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B145" t="n">
-        <v>132.6000061035156</v>
+        <v>123.3499984741211</v>
       </c>
       <c r="C145" t="n">
-        <v>164.9499969482422</v>
+        <v>168.5500030517578</v>
       </c>
       <c r="D145" t="n">
-        <v>122</v>
+        <v>122.5</v>
       </c>
       <c r="E145" t="n">
-        <v>125.25</v>
+        <v>136.6499938964844</v>
       </c>
       <c r="F145" t="n">
-        <v>125.25</v>
+        <v>136.6499938964844</v>
       </c>
       <c r="G145" t="n">
-        <v>191763</v>
+        <v>385183</v>
       </c>
       <c r="H145" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -8144,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O145" t="n">
         <v>0</v>
@@ -8158,31 +8150,31 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B146" t="n">
-        <v>124.0999984741211</v>
+        <v>132.6000061035156</v>
       </c>
       <c r="C146" t="n">
-        <v>134.6000061035156</v>
+        <v>164.9499969482422</v>
       </c>
       <c r="D146" t="n">
-        <v>106.0999984741211</v>
+        <v>122</v>
       </c>
       <c r="E146" t="n">
-        <v>113.9499969482422</v>
+        <v>125.25</v>
       </c>
       <c r="F146" t="n">
-        <v>113.9499969482422</v>
+        <v>125.25</v>
       </c>
       <c r="G146" t="n">
-        <v>156491</v>
+        <v>191763</v>
       </c>
       <c r="H146" t="n">
         <v>2022</v>
       </c>
       <c r="I146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -8197,45 +8189,45 @@
         <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P146" t="n">
         <v>0</v>
       </c>
       <c r="Q146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B147" t="n">
+        <v>124.0999984741211</v>
+      </c>
+      <c r="C147" t="n">
+        <v>134.6000061035156</v>
+      </c>
+      <c r="D147" t="n">
+        <v>106.0999984741211</v>
+      </c>
+      <c r="E147" t="n">
         <v>113.9499969482422</v>
       </c>
-      <c r="C147" t="n">
-        <v>168.9499969482422</v>
-      </c>
-      <c r="D147" t="n">
-        <v>109</v>
-      </c>
-      <c r="E147" t="n">
-        <v>134.3999938964844</v>
-      </c>
       <c r="F147" t="n">
-        <v>134.3999938964844</v>
+        <v>113.9499969482422</v>
       </c>
       <c r="G147" t="n">
-        <v>510583</v>
+        <v>156491</v>
       </c>
       <c r="H147" t="n">
         <v>2022</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
         <v>1</v>
@@ -8250,45 +8242,45 @@
         <v>0</v>
       </c>
       <c r="N147" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P147" t="n">
         <v>0</v>
       </c>
       <c r="Q147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B148" t="n">
-        <v>132.4499969482422</v>
+        <v>113.9499969482422</v>
       </c>
       <c r="C148" t="n">
-        <v>147.8000030517578</v>
+        <v>168.9499969482422</v>
       </c>
       <c r="D148" t="n">
-        <v>126.6500015258789</v>
+        <v>109</v>
       </c>
       <c r="E148" t="n">
-        <v>129.5500030517578</v>
+        <v>134.3999938964844</v>
       </c>
       <c r="F148" t="n">
-        <v>129.5500030517578</v>
+        <v>134.3999938964844</v>
       </c>
       <c r="G148" t="n">
-        <v>142465</v>
+        <v>510583</v>
       </c>
       <c r="H148" t="n">
         <v>2022</v>
       </c>
       <c r="I148" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -8303,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="N148" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P148" t="n">
         <v>0</v>
@@ -8317,31 +8309,31 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B149" t="n">
-        <v>125.3499984741211</v>
+        <v>132.4499969482422</v>
       </c>
       <c r="C149" t="n">
-        <v>145.0500030517578</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="D149" t="n">
-        <v>111.3499984741211</v>
+        <v>126.6500015258789</v>
       </c>
       <c r="E149" t="n">
-        <v>141.3999938964844</v>
+        <v>129.5500030517578</v>
       </c>
       <c r="F149" t="n">
-        <v>141.3999938964844</v>
+        <v>129.5500030517578</v>
       </c>
       <c r="G149" t="n">
-        <v>300902</v>
+        <v>142465</v>
       </c>
       <c r="H149" t="n">
         <v>2022</v>
       </c>
       <c r="I149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -8356,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="N149" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O149" t="n">
         <v>0</v>
@@ -8370,31 +8362,31 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B150" t="n">
-        <v>139.0500030517578</v>
+        <v>125.3499984741211</v>
       </c>
       <c r="C150" t="n">
-        <v>168.25</v>
+        <v>145.0500030517578</v>
       </c>
       <c r="D150" t="n">
-        <v>132.5500030517578</v>
+        <v>111.3499984741211</v>
       </c>
       <c r="E150" t="n">
-        <v>140.8999938964844</v>
+        <v>141.3999938964844</v>
       </c>
       <c r="F150" t="n">
-        <v>140.8999938964844</v>
+        <v>141.3999938964844</v>
       </c>
       <c r="G150" t="n">
-        <v>198242</v>
+        <v>300902</v>
       </c>
       <c r="H150" t="n">
         <v>2022</v>
       </c>
       <c r="I150" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -8409,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="N150" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O150" t="n">
         <v>0</v>
@@ -8418,36 +8410,36 @@
         <v>0</v>
       </c>
       <c r="Q150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B151" t="n">
+        <v>139.0500030517578</v>
+      </c>
+      <c r="C151" t="n">
+        <v>168.25</v>
+      </c>
+      <c r="D151" t="n">
+        <v>132.5500030517578</v>
+      </c>
+      <c r="E151" t="n">
         <v>140.8999938964844</v>
       </c>
-      <c r="C151" t="n">
+      <c r="F151" t="n">
         <v>140.8999938964844</v>
       </c>
-      <c r="D151" t="n">
-        <v>120.4499969482422</v>
-      </c>
-      <c r="E151" t="n">
-        <v>125.5</v>
-      </c>
-      <c r="F151" t="n">
-        <v>125.5</v>
-      </c>
       <c r="G151" t="n">
-        <v>62909</v>
+        <v>198242</v>
       </c>
       <c r="H151" t="n">
         <v>2022</v>
       </c>
       <c r="I151" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
@@ -8462,45 +8454,45 @@
         <v>0</v>
       </c>
       <c r="N151" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O151" t="n">
         <v>0</v>
       </c>
       <c r="P151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B152" t="n">
-        <v>127.6500015258789</v>
+        <v>140.8999938964844</v>
       </c>
       <c r="C152" t="n">
-        <v>185</v>
+        <v>140.8999938964844</v>
       </c>
       <c r="D152" t="n">
-        <v>121.75</v>
+        <v>120.4499969482422</v>
       </c>
       <c r="E152" t="n">
-        <v>176.8999938964844</v>
+        <v>125.5</v>
       </c>
       <c r="F152" t="n">
-        <v>176.8999938964844</v>
+        <v>125.5</v>
       </c>
       <c r="G152" t="n">
-        <v>345513</v>
+        <v>62909</v>
       </c>
       <c r="H152" t="n">
         <v>2022</v>
       </c>
       <c r="I152" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
@@ -8515,45 +8507,45 @@
         <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O152" t="n">
         <v>0</v>
       </c>
       <c r="P152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B153" t="n">
+        <v>127.6500015258789</v>
+      </c>
+      <c r="C153" t="n">
+        <v>185</v>
+      </c>
+      <c r="D153" t="n">
+        <v>121.75</v>
+      </c>
+      <c r="E153" t="n">
         <v>176.8999938964844</v>
       </c>
-      <c r="C153" t="n">
-        <v>375.3999938964844</v>
-      </c>
-      <c r="D153" t="n">
-        <v>161</v>
-      </c>
-      <c r="E153" t="n">
-        <v>276.1499938964844</v>
-      </c>
       <c r="F153" t="n">
-        <v>276.1499938964844</v>
+        <v>176.8999938964844</v>
       </c>
       <c r="G153" t="n">
-        <v>2723817</v>
+        <v>345513</v>
       </c>
       <c r="H153" t="n">
         <v>2022</v>
       </c>
       <c r="I153" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J153" t="n">
         <v>1</v>
@@ -8568,10 +8560,10 @@
         <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P153" t="n">
         <v>0</v>
@@ -8582,31 +8574,31 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B154" t="n">
-        <v>262.3500061035156</v>
+        <v>176.8999938964844</v>
       </c>
       <c r="C154" t="n">
-        <v>262.3500061035156</v>
+        <v>375.3999938964844</v>
       </c>
       <c r="D154" t="n">
-        <v>154.75</v>
+        <v>161</v>
       </c>
       <c r="E154" t="n">
-        <v>156.6000061035156</v>
+        <v>276.1499938964844</v>
       </c>
       <c r="F154" t="n">
-        <v>156.6000061035156</v>
+        <v>276.1499938964844</v>
       </c>
       <c r="G154" t="n">
-        <v>4396690</v>
+        <v>2723817</v>
       </c>
       <c r="H154" t="n">
         <v>2022</v>
       </c>
       <c r="I154" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -8621,10 +8613,10 @@
         <v>0</v>
       </c>
       <c r="N154" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P154" t="n">
         <v>0</v>
@@ -8635,31 +8627,31 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B155" t="n">
-        <v>154.6999969482422</v>
+        <v>262.3500061035156</v>
       </c>
       <c r="C155" t="n">
-        <v>169.1000061035156</v>
+        <v>262.3500061035156</v>
       </c>
       <c r="D155" t="n">
-        <v>153.1499938964844</v>
+        <v>154.75</v>
       </c>
       <c r="E155" t="n">
-        <v>165.3000030517578</v>
+        <v>156.6000061035156</v>
       </c>
       <c r="F155" t="n">
-        <v>165.3000030517578</v>
+        <v>156.6000061035156</v>
       </c>
       <c r="G155" t="n">
-        <v>3103488</v>
+        <v>4396690</v>
       </c>
       <c r="H155" t="n">
         <v>2022</v>
       </c>
       <c r="I155" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -8674,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="N155" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O155" t="n">
         <v>0</v>
@@ -8688,31 +8680,31 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B156" t="n">
-        <v>166.6999969482422</v>
+        <v>154.6999969482422</v>
       </c>
       <c r="C156" t="n">
-        <v>180.8000030517578</v>
+        <v>169.1000061035156</v>
       </c>
       <c r="D156" t="n">
-        <v>152.6499938964844</v>
+        <v>153.1499938964844</v>
       </c>
       <c r="E156" t="n">
-        <v>171.3999938964844</v>
+        <v>165.3000030517578</v>
       </c>
       <c r="F156" t="n">
-        <v>171.3999938964844</v>
+        <v>165.3000030517578</v>
       </c>
       <c r="G156" t="n">
-        <v>2106360</v>
+        <v>3103488</v>
       </c>
       <c r="H156" t="n">
         <v>2022</v>
       </c>
       <c r="I156" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
@@ -8727,10 +8719,10 @@
         <v>0</v>
       </c>
       <c r="N156" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P156" t="n">
         <v>0</v>
@@ -8741,31 +8733,31 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B157" t="n">
-        <v>173</v>
+        <v>166.6999969482422</v>
       </c>
       <c r="C157" t="n">
-        <v>188</v>
+        <v>180.8000030517578</v>
       </c>
       <c r="D157" t="n">
-        <v>173</v>
+        <v>152.6499938964844</v>
       </c>
       <c r="E157" t="n">
-        <v>180.4499969482422</v>
+        <v>171.3999938964844</v>
       </c>
       <c r="F157" t="n">
-        <v>180.4499969482422</v>
+        <v>171.3999938964844</v>
       </c>
       <c r="G157" t="n">
-        <v>1956186</v>
+        <v>2106360</v>
       </c>
       <c r="H157" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J157" t="n">
         <v>1</v>
@@ -8780,98 +8772,98 @@
         <v>0</v>
       </c>
       <c r="N157" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P157" t="n">
         <v>0</v>
       </c>
       <c r="Q157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B158" t="n">
-        <v>182.3500061035156</v>
+        <v>173</v>
       </c>
       <c r="C158" t="n">
-        <v>186.3500061035156</v>
+        <v>188</v>
       </c>
       <c r="D158" t="n">
-        <v>156.0500030517578</v>
+        <v>173</v>
       </c>
       <c r="E158" t="n">
-        <v>157.25</v>
+        <v>180.4499969482422</v>
       </c>
       <c r="F158" t="n">
-        <v>157.25</v>
+        <v>180.4499969482422</v>
       </c>
       <c r="G158" t="n">
-        <v>890312</v>
+        <v>1956186</v>
       </c>
       <c r="H158" t="n">
         <v>2023</v>
       </c>
       <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>52</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
         <v>2</v>
-      </c>
-      <c r="J158" t="n">
-        <v>1</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0</v>
-      </c>
-      <c r="L158" t="n">
-        <v>0</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0</v>
-      </c>
-      <c r="N158" t="n">
-        <v>5</v>
-      </c>
-      <c r="O158" t="n">
-        <v>0</v>
-      </c>
-      <c r="P158" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B159" t="n">
-        <v>157</v>
+        <v>182.3500061035156</v>
       </c>
       <c r="C159" t="n">
-        <v>168.3000030517578</v>
+        <v>186.3500061035156</v>
       </c>
       <c r="D159" t="n">
-        <v>155.1000061035156</v>
+        <v>156.0500030517578</v>
       </c>
       <c r="E159" t="n">
-        <v>160.1499938964844</v>
+        <v>157.25</v>
       </c>
       <c r="F159" t="n">
-        <v>160.1499938964844</v>
+        <v>157.25</v>
       </c>
       <c r="G159" t="n">
-        <v>1125041</v>
+        <v>890312</v>
       </c>
       <c r="H159" t="n">
         <v>2023</v>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -8886,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O159" t="n">
         <v>0</v>
@@ -8900,31 +8892,31 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B160" t="n">
-        <v>162.4499969482422</v>
+        <v>157</v>
       </c>
       <c r="C160" t="n">
-        <v>170.5500030517578</v>
+        <v>168.3000030517578</v>
       </c>
       <c r="D160" t="n">
-        <v>160.25</v>
+        <v>155.1000061035156</v>
       </c>
       <c r="E160" t="n">
-        <v>166.8500061035156</v>
+        <v>160.1499938964844</v>
       </c>
       <c r="F160" t="n">
-        <v>166.8500061035156</v>
+        <v>160.1499938964844</v>
       </c>
       <c r="G160" t="n">
-        <v>718831</v>
+        <v>1125041</v>
       </c>
       <c r="H160" t="n">
         <v>2023</v>
       </c>
       <c r="I160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J160" t="n">
         <v>1</v>
@@ -8939,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="N160" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O160" t="n">
         <v>0</v>
@@ -8948,36 +8940,36 @@
         <v>0</v>
       </c>
       <c r="Q160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B161" t="n">
+        <v>162.4499969482422</v>
+      </c>
+      <c r="C161" t="n">
+        <v>170.5500030517578</v>
+      </c>
+      <c r="D161" t="n">
+        <v>160.25</v>
+      </c>
+      <c r="E161" t="n">
         <v>166.8500061035156</v>
       </c>
-      <c r="C161" t="n">
-        <v>172.3999938964844</v>
-      </c>
-      <c r="D161" t="n">
-        <v>158.8500061035156</v>
-      </c>
-      <c r="E161" t="n">
-        <v>163.6999969482422</v>
-      </c>
       <c r="F161" t="n">
-        <v>163.6999969482422</v>
+        <v>166.8500061035156</v>
       </c>
       <c r="G161" t="n">
-        <v>976888</v>
+        <v>718831</v>
       </c>
       <c r="H161" t="n">
         <v>2023</v>
       </c>
       <c r="I161" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J161" t="n">
         <v>1</v>
@@ -8992,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="N161" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O161" t="n">
         <v>0</v>
@@ -9001,36 +8993,36 @@
         <v>0</v>
       </c>
       <c r="Q161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B162" t="n">
-        <v>163.5</v>
+        <v>166.8500061035156</v>
       </c>
       <c r="C162" t="n">
-        <v>179.4499969482422</v>
+        <v>172.3999938964844</v>
       </c>
       <c r="D162" t="n">
-        <v>161.9499969482422</v>
+        <v>158.8500061035156</v>
       </c>
       <c r="E162" t="n">
-        <v>171.3000030517578</v>
+        <v>163.6999969482422</v>
       </c>
       <c r="F162" t="n">
-        <v>171.3000030517578</v>
+        <v>163.6999969482422</v>
       </c>
       <c r="G162" t="n">
-        <v>1428634</v>
+        <v>976888</v>
       </c>
       <c r="H162" t="n">
         <v>2023</v>
       </c>
       <c r="I162" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J162" t="n">
         <v>1</v>
@@ -9045,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="N162" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O162" t="n">
         <v>0</v>
@@ -9059,31 +9051,31 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B163" t="n">
-        <v>173.6999969482422</v>
+        <v>163.5</v>
       </c>
       <c r="C163" t="n">
-        <v>206.8500061035156</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="D163" t="n">
-        <v>170.25</v>
+        <v>161.9499969482422</v>
       </c>
       <c r="E163" t="n">
-        <v>196.6499938964844</v>
+        <v>171.3000030517578</v>
       </c>
       <c r="F163" t="n">
-        <v>196.6499938964844</v>
+        <v>171.3000030517578</v>
       </c>
       <c r="G163" t="n">
-        <v>3041596</v>
+        <v>1428634</v>
       </c>
       <c r="H163" t="n">
         <v>2023</v>
       </c>
       <c r="I163" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J163" t="n">
         <v>1</v>
@@ -9098,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="N163" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O163" t="n">
         <v>0</v>
@@ -9112,31 +9104,31 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B164" t="n">
-        <v>198.4499969482422</v>
+        <v>173.6999969482422</v>
       </c>
       <c r="C164" t="n">
-        <v>258.5499877929688</v>
+        <v>206.8500061035156</v>
       </c>
       <c r="D164" t="n">
-        <v>184.6000061035156</v>
+        <v>170.25</v>
       </c>
       <c r="E164" t="n">
-        <v>233.25</v>
+        <v>196.6499938964844</v>
       </c>
       <c r="F164" t="n">
-        <v>233.25</v>
+        <v>196.6499938964844</v>
       </c>
       <c r="G164" t="n">
-        <v>12661834</v>
+        <v>3041596</v>
       </c>
       <c r="H164" t="n">
         <v>2023</v>
       </c>
       <c r="I164" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -9151,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="N164" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O164" t="n">
         <v>0</v>
@@ -9165,31 +9157,31 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B165" t="n">
+        <v>198.4499969482422</v>
+      </c>
+      <c r="C165" t="n">
+        <v>258.5499877929688</v>
+      </c>
+      <c r="D165" t="n">
+        <v>184.6000061035156</v>
+      </c>
+      <c r="E165" t="n">
         <v>233.25</v>
       </c>
-      <c r="C165" t="n">
-        <v>261</v>
-      </c>
-      <c r="D165" t="n">
-        <v>215.25</v>
-      </c>
-      <c r="E165" t="n">
-        <v>237.9499969482422</v>
-      </c>
       <c r="F165" t="n">
-        <v>237.9499969482422</v>
+        <v>233.25</v>
       </c>
       <c r="G165" t="n">
-        <v>5998265</v>
+        <v>12661834</v>
       </c>
       <c r="H165" t="n">
         <v>2023</v>
       </c>
       <c r="I165" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J165" t="n">
         <v>1</v>
@@ -9204,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="N165" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O165" t="n">
         <v>0</v>
@@ -9218,31 +9210,31 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B166" t="n">
+        <v>233.25</v>
+      </c>
+      <c r="C166" t="n">
+        <v>261</v>
+      </c>
+      <c r="D166" t="n">
+        <v>215.25</v>
+      </c>
+      <c r="E166" t="n">
         <v>237.9499969482422</v>
       </c>
-      <c r="C166" t="n">
-        <v>282</v>
-      </c>
-      <c r="D166" t="n">
-        <v>220.75</v>
-      </c>
-      <c r="E166" t="n">
-        <v>249.8999938964844</v>
-      </c>
       <c r="F166" t="n">
-        <v>249.8999938964844</v>
+        <v>237.9499969482422</v>
       </c>
       <c r="G166" t="n">
-        <v>6299376</v>
+        <v>5998265</v>
       </c>
       <c r="H166" t="n">
         <v>2023</v>
       </c>
       <c r="I166" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J166" t="n">
         <v>1</v>
@@ -9257,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="N166" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O166" t="n">
         <v>0</v>
@@ -9271,31 +9263,31 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B167" t="n">
-        <v>251.6999969482422</v>
+        <v>237.9499969482422</v>
       </c>
       <c r="C167" t="n">
-        <v>292.7000122070312</v>
+        <v>282</v>
       </c>
       <c r="D167" t="n">
-        <v>245.3500061035156</v>
+        <v>220.75</v>
       </c>
       <c r="E167" t="n">
-        <v>260</v>
+        <v>249.8999938964844</v>
       </c>
       <c r="F167" t="n">
-        <v>260</v>
+        <v>249.8999938964844</v>
       </c>
       <c r="G167" t="n">
-        <v>5066504</v>
+        <v>6299376</v>
       </c>
       <c r="H167" t="n">
         <v>2023</v>
       </c>
       <c r="I167" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
@@ -9310,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O167" t="n">
         <v>0</v>
@@ -9324,31 +9316,31 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B168" t="n">
+        <v>251.6999969482422</v>
+      </c>
+      <c r="C168" t="n">
+        <v>292.7000122070312</v>
+      </c>
+      <c r="D168" t="n">
+        <v>245.3500061035156</v>
+      </c>
+      <c r="E168" t="n">
         <v>260</v>
       </c>
-      <c r="C168" t="n">
-        <v>266.8999938964844</v>
-      </c>
-      <c r="D168" t="n">
-        <v>243.3000030517578</v>
-      </c>
-      <c r="E168" t="n">
-        <v>253.6499938964844</v>
-      </c>
       <c r="F168" t="n">
-        <v>253.6499938964844</v>
+        <v>260</v>
       </c>
       <c r="G168" t="n">
-        <v>1523375</v>
+        <v>5066504</v>
       </c>
       <c r="H168" t="n">
         <v>2023</v>
       </c>
       <c r="I168" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J168" t="n">
         <v>1</v>
@@ -9363,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="N168" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O168" t="n">
         <v>0</v>
@@ -9377,31 +9369,31 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B169" t="n">
-        <v>252.0500030517578</v>
+        <v>260</v>
       </c>
       <c r="C169" t="n">
-        <v>293.9500122070312</v>
+        <v>266.8999938964844</v>
       </c>
       <c r="D169" t="n">
-        <v>237.1499938964844</v>
+        <v>243.3000030517578</v>
       </c>
       <c r="E169" t="n">
-        <v>255.5500030517578</v>
+        <v>253.6499938964844</v>
       </c>
       <c r="F169" t="n">
-        <v>255.5500030517578</v>
+        <v>253.6499938964844</v>
       </c>
       <c r="G169" t="n">
-        <v>3748303</v>
+        <v>1523375</v>
       </c>
       <c r="H169" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J169" t="n">
         <v>1</v>
@@ -9416,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="N169" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O169" t="n">
         <v>0</v>
@@ -9430,31 +9422,31 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B170" t="n">
-        <v>253.3000030517578</v>
+        <v>252.0500030517578</v>
       </c>
       <c r="C170" t="n">
-        <v>509.9500122070312</v>
+        <v>293.9500122070312</v>
       </c>
       <c r="D170" t="n">
-        <v>253.1000061035156</v>
+        <v>237.1499938964844</v>
       </c>
       <c r="E170" t="n">
-        <v>433.8500061035156</v>
+        <v>255.5500030517578</v>
       </c>
       <c r="F170" t="n">
-        <v>433.8500061035156</v>
+        <v>255.5500030517578</v>
       </c>
       <c r="G170" t="n">
-        <v>5531861</v>
+        <v>3748303</v>
       </c>
       <c r="H170" t="n">
         <v>2024</v>
       </c>
       <c r="I170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
         <v>1</v>
@@ -9469,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O170" t="n">
         <v>0</v>
@@ -9483,31 +9475,31 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B171" t="n">
-        <v>455.5</v>
+        <v>253.3000030517578</v>
       </c>
       <c r="C171" t="n">
-        <v>502.1499938964844</v>
+        <v>509.9500122070312</v>
       </c>
       <c r="D171" t="n">
-        <v>403.3999938964844</v>
+        <v>253.1000061035156</v>
       </c>
       <c r="E171" t="n">
-        <v>405.1000061035156</v>
+        <v>433.8500061035156</v>
       </c>
       <c r="F171" t="n">
-        <v>405.1000061035156</v>
+        <v>433.8500061035156</v>
       </c>
       <c r="G171" t="n">
-        <v>449651</v>
+        <v>5531861</v>
       </c>
       <c r="H171" t="n">
         <v>2024</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
@@ -9522,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="N171" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O171" t="n">
         <v>0</v>
@@ -9536,31 +9528,31 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B172" t="n">
-        <v>413.2000122070312</v>
+        <v>455.5</v>
       </c>
       <c r="C172" t="n">
-        <v>600.25</v>
+        <v>502.1499938964844</v>
       </c>
       <c r="D172" t="n">
-        <v>413.2000122070312</v>
+        <v>403.3999938964844</v>
       </c>
       <c r="E172" t="n">
-        <v>600.25</v>
+        <v>405.1000061035156</v>
       </c>
       <c r="F172" t="n">
-        <v>600.25</v>
+        <v>405.1000061035156</v>
       </c>
       <c r="G172" t="n">
-        <v>525929</v>
+        <v>449651</v>
       </c>
       <c r="H172" t="n">
         <v>2024</v>
       </c>
       <c r="I172" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J172" t="n">
         <v>1</v>
@@ -9575,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="N172" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O172" t="n">
         <v>0</v>
@@ -9589,31 +9581,31 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B173" t="n">
-        <v>612.25</v>
+        <v>413.2000122070312</v>
       </c>
       <c r="C173" t="n">
-        <v>669</v>
+        <v>600.25</v>
       </c>
       <c r="D173" t="n">
-        <v>552.25</v>
+        <v>413.2000122070312</v>
       </c>
       <c r="E173" t="n">
-        <v>552.5499877929688</v>
+        <v>600.25</v>
       </c>
       <c r="F173" t="n">
-        <v>552.5499877929688</v>
+        <v>600.25</v>
       </c>
       <c r="G173" t="n">
-        <v>414727</v>
+        <v>525929</v>
       </c>
       <c r="H173" t="n">
         <v>2024</v>
       </c>
       <c r="I173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J173" t="n">
         <v>1</v>
@@ -9628,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="N173" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O173" t="n">
         <v>0</v>
@@ -9642,56 +9634,514 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B174" t="n">
-        <v>580.1500244140625</v>
+        <v>612.25</v>
       </c>
       <c r="C174" t="n">
-        <v>580.1500244140625</v>
+        <v>669</v>
       </c>
       <c r="D174" t="n">
-        <v>523.5999755859375</v>
+        <v>552.25</v>
       </c>
       <c r="E174" t="n">
-        <v>566.1500244140625</v>
+        <v>552.5499877929688</v>
       </c>
       <c r="F174" t="n">
-        <v>566.1500244140625</v>
+        <v>552.5499877929688</v>
       </c>
       <c r="G174" t="n">
-        <v>97772</v>
+        <v>414727</v>
       </c>
       <c r="H174" t="n">
         <v>2024</v>
       </c>
       <c r="I174" t="n">
+        <v>5</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>18</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B175" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="C175" t="n">
+        <v>580.1500244140625</v>
+      </c>
+      <c r="D175" t="n">
+        <v>523.5999755859375</v>
+      </c>
+      <c r="E175" t="n">
+        <v>566.1500244140625</v>
+      </c>
+      <c r="F175" t="n">
+        <v>566.1500244140625</v>
+      </c>
+      <c r="G175" t="n">
+        <v>97772</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I175" t="n">
         <v>6</v>
       </c>
-      <c r="J174" t="n">
-        <v>1</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0</v>
-      </c>
-      <c r="L174" t="n">
-        <v>0</v>
-      </c>
-      <c r="M174" t="n">
-        <v>0</v>
-      </c>
-      <c r="N174" t="n">
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
         <v>22</v>
       </c>
-      <c r="O174" t="n">
-        <v>0</v>
-      </c>
-      <c r="P174" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q174" t="n">
-        <v>0</v>
-      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B176" t="n">
+        <v>546</v>
+      </c>
+      <c r="C176" t="n">
+        <v>555.9000244140625</v>
+      </c>
+      <c r="D176" t="n">
+        <v>479.9500122070312</v>
+      </c>
+      <c r="E176" t="n">
+        <v>526.4500122070312</v>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="n">
+        <v>281742</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I176" t="n">
+        <v>7</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>27</v>
+      </c>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B177" t="n">
+        <v>524.9500122070312</v>
+      </c>
+      <c r="C177" t="n">
+        <v>616</v>
+      </c>
+      <c r="D177" t="n">
+        <v>450.6000061035156</v>
+      </c>
+      <c r="E177" t="n">
+        <v>563.3499755859375</v>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="n">
+        <v>1034612</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I177" t="n">
+        <v>8</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>31</v>
+      </c>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B178" t="n">
+        <v>574</v>
+      </c>
+      <c r="C178" t="n">
+        <v>574</v>
+      </c>
+      <c r="D178" t="n">
+        <v>484.5499877929688</v>
+      </c>
+      <c r="E178" t="n">
+        <v>493.9500122070312</v>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>460020</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I178" t="n">
+        <v>9</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>35</v>
+      </c>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B179" t="n">
+        <v>506.2999877929688</v>
+      </c>
+      <c r="C179" t="n">
+        <v>528.7999877929688</v>
+      </c>
+      <c r="D179" t="n">
+        <v>410.5499877929688</v>
+      </c>
+      <c r="E179" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="n">
+        <v>633102</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I179" t="n">
+        <v>10</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>40</v>
+      </c>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B180" t="n">
+        <v>442.9500122070312</v>
+      </c>
+      <c r="C180" t="n">
+        <v>466.3999938964844</v>
+      </c>
+      <c r="D180" t="n">
+        <v>390</v>
+      </c>
+      <c r="E180" t="n">
+        <v>429.9500122070312</v>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>288191</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I180" t="n">
+        <v>11</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>44</v>
+      </c>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B181" t="n">
+        <v>434.6000061035156</v>
+      </c>
+      <c r="C181" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="D181" t="n">
+        <v>416.1000061035156</v>
+      </c>
+      <c r="E181" t="n">
+        <v>435.6499938964844</v>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>1859732</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I181" t="n">
+        <v>12</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>48</v>
+      </c>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B182" t="n">
+        <v>439</v>
+      </c>
+      <c r="C182" t="n">
+        <v>450</v>
+      </c>
+      <c r="D182" t="n">
+        <v>373.9500122070312</v>
+      </c>
+      <c r="E182" t="n">
+        <v>389.1000061035156</v>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>621130</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B183" t="n">
+        <v>390</v>
+      </c>
+      <c r="C183" t="n">
+        <v>400</v>
+      </c>
+      <c r="D183" t="n">
+        <v>310.7999877929688</v>
+      </c>
+      <c r="E183" t="n">
+        <v>322.75</v>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>437916</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>5</v>
+      </c>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B184" t="n">
+        <v>330</v>
+      </c>
+      <c r="C184" t="n">
+        <v>405</v>
+      </c>
+      <c r="D184" t="n">
+        <v>295</v>
+      </c>
+      <c r="E184" t="n">
+        <v>350.3999938964844</v>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>1156657</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I184" t="n">
+        <v>3</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>9</v>
+      </c>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
